--- a/dokumen/desain db.xlsx
+++ b/dokumen/desain db.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10611"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10709"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/www/e-silat-skor/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/www/e-silat-skor/dokumen/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{007003C3-3A87-7C45-B186-399C6E7BDFA1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CB87A9E-7976-FD4F-A416-3780291379D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{A54BF03B-57D3-874B-BA08-4083F5223290}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,6 +27,8 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="44">
   <si>
     <t>users</t>
   </si>
@@ -111,9 +113,6 @@
     <t>sisa_waktu</t>
   </si>
   <si>
-    <t>hukuman</t>
-  </si>
-  <si>
     <t>ronde_id</t>
   </si>
   <si>
@@ -123,18 +122,12 @@
     <t>tim_id</t>
   </si>
   <si>
-    <t>waktu</t>
-  </si>
-  <si>
     <t>penilaian</t>
   </si>
   <si>
     <t>nilai</t>
   </si>
   <si>
-    <t>jenis_nilai</t>
-  </si>
-  <si>
     <t>(merah, biru)</t>
   </si>
   <si>
@@ -147,16 +140,34 @@
     <t>(detik)</t>
   </si>
   <si>
-    <t>(datetime)</t>
-  </si>
-  <si>
-    <t>(teguran, peringatan dll)</t>
-  </si>
-  <si>
-    <t>(pukulan, tendangan)</t>
-  </si>
-  <si>
     <t>(I, II, III)</t>
+  </si>
+  <si>
+    <t>vote</t>
+  </si>
+  <si>
+    <t>jenis</t>
+  </si>
+  <si>
+    <t>nilai_id</t>
+  </si>
+  <si>
+    <t>(pukulan, tendangan, jatuhan, binaan, teguran, peringatan)</t>
+  </si>
+  <si>
+    <t>waktu_vote</t>
+  </si>
+  <si>
+    <t>hasil_vote</t>
+  </si>
+  <si>
+    <t>(y,n)</t>
+  </si>
+  <si>
+    <t>(date_time)</t>
+  </si>
+  <si>
+    <t>vote_id</t>
   </si>
 </sst>
 </file>
@@ -221,7 +232,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -230,6 +241,14 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -259,13 +278,13 @@
       <xdr:rowOff>169560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>2085360</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1788160</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>162960</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="23" name="Ink 22">
@@ -280,11 +299,11 @@
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
             <a:off x="1140120" y="169560"/>
-            <a:ext cx="12161880" cy="3163320"/>
+            <a:ext cx="8725240" cy="3163320"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="23" name="Ink 22">
@@ -319,71 +338,6 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>29000</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>156240</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>13520</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>181320</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="25" name="Ink 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078FF00A-FA98-8ABE-E2B5-F8E68BA52297}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1146600" y="156240"/>
-            <a:ext cx="8762760" cy="3195000"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="25" name="Ink 24">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{078FF00A-FA98-8ABE-E2B5-F8E68BA52297}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1137960" y="147240"/>
-              <a:ext cx="8780400" cy="3212640"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
       <xdr:colOff>742160</xdr:colOff>
       <xdr:row>3</xdr:row>
       <xdr:rowOff>146760</xdr:rowOff>
@@ -394,9 +348,9 @@
       <xdr:row>3</xdr:row>
       <xdr:rowOff>226680</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="28" name="Ink 27">
               <a:extLst>
@@ -414,7 +368,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="28" name="Ink 27">
@@ -459,8 +413,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>144560</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="31" name="Ink 30">
@@ -479,7 +433,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="31" name="Ink 30">
@@ -513,136 +467,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>647120</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>3560</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1184960</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>157400</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="34" name="Ink 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7AEA65-FA63-928F-2C21-84C6B0069BE3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1764720" y="1060200"/>
-            <a:ext cx="1360800" cy="1738800"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="34" name="Ink 33">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D7AEA65-FA63-928F-2C21-84C6B0069BE3}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1755722" y="1051560"/>
-              <a:ext cx="1378435" cy="1756440"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>629840</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>13640</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>1177400</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>226960</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="37" name="Ink 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730BEFA9-2B06-D0B1-0E8C-BF56BA1A260F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="1747440" y="1070280"/>
-            <a:ext cx="1370520" cy="2062440"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="37" name="Ink 36">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{730BEFA9-2B06-D0B1-0E8C-BF56BA1A260F}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="1738442" y="1061280"/>
-              <a:ext cx="1388155" cy="2080080"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>72560</xdr:colOff>
       <xdr:row>8</xdr:row>
@@ -654,9 +478,9 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>181360</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="40" name="Ink 39">
               <a:extLst>
@@ -674,7 +498,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="40" name="Ink 39">
@@ -709,24 +533,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>147720</xdr:colOff>
+      <xdr:colOff>185880</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>156440</xdr:rowOff>
+      <xdr:rowOff>147440</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1782840</xdr:colOff>
+      <xdr:colOff>1778000</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>208960</xdr:rowOff>
+      <xdr:rowOff>210040</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="43" name="Ink 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F55795-D0FE-6335-72B4-1B3B8EC02763}"/>
+            <xdr14:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF594EB-AD68-1F27-2B4E-99D866633312}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -734,33 +558,33 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="8224920" y="2005560"/>
-            <a:ext cx="1635120" cy="1109160"/>
+            <a:off x="8263080" y="1996560"/>
+            <a:ext cx="1592120" cy="1119240"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="43" name="Ink 42">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{73F55795-D0FE-6335-72B4-1B3B8EC02763}"/>
+            <xdr:cNvPr id="53" name="Ink 52">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF594EB-AD68-1F27-2B4E-99D866633312}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8216280" y="1996560"/>
-              <a:ext cx="1652760" cy="1126800"/>
+              <a:off x="8254440" y="1987920"/>
+              <a:ext cx="4912560" cy="1136880"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -774,24 +598,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>710840</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>204280</xdr:rowOff>
+      <xdr:colOff>43040</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>208720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>1759080</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>145360</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>38040</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>204200</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="46" name="Ink 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFE2ED8-365A-A340-6B82-857AD3199838}"/>
+            <xdr14:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBA9890-6F18-6F78-FC0A-666E549FAA6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -799,33 +623,553 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="1828440" y="3110040"/>
-            <a:ext cx="8007840" cy="1526040"/>
+            <a:off x="1160640" y="2322000"/>
+            <a:ext cx="2047320" cy="523800"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
       <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="46" name="Ink 45">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ABFE2ED8-365A-A340-6B82-857AD3199838}"/>
+            <xdr:cNvPr id="2" name="Ink 1">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1BBA9890-6F18-6F78-FC0A-666E549FAA6F}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId24"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="1819440" y="3101040"/>
-              <a:ext cx="8025480" cy="1543680"/>
+              <a:off x="1151640" y="2313360"/>
+              <a:ext cx="2064960" cy="541440"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58520</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>235720</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1233</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>185200</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C0BE7F-6F69-2449-DD91-9DF4EC728AC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1176120" y="2349000"/>
+            <a:ext cx="1991880" cy="741960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="3" name="Ink 2">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{03C0BE7F-6F69-2449-DD91-9DF4EC728AC0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId26"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1167148" y="2340608"/>
+              <a:ext cx="2009466" cy="759093"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1112960</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>121040</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>42000</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>234520</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA487B3-AA5B-C2C5-0633-34AB6553E0D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="3053520" y="2762640"/>
+            <a:ext cx="158400" cy="377640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="6" name="Ink 5">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CCA487B3-AA5B-C2C5-0633-34AB6553E0D5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId28"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="3044880" y="2753640"/>
+              <a:ext cx="176040" cy="395280"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>74000</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>248680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1767840</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>86000</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58140240-6C3E-C959-2DC3-A0D44F193EE4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1191600" y="2361960"/>
+            <a:ext cx="8653440" cy="3352680"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="12" name="Ink 11">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58140240-6C3E-C959-2DC3-A0D44F193EE4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId30"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1182611" y="2353173"/>
+              <a:ext cx="8671058" cy="3369902"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38000</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>88240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1795080</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64760</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECFA9B5-5686-06C0-BBEF-9A448C92EF43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1155600" y="3786480"/>
+            <a:ext cx="8716680" cy="1906920"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="16" name="Ink 15">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DECFA9B5-5686-06C0-BBEF-9A448C92EF43}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId32"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1146612" y="3777655"/>
+              <a:ext cx="8734297" cy="1924217"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>11400</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>128960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>33720</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>36400</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E84007-BCB2-8794-FC3F-61CADCEBB953}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="11410920" y="2770560"/>
+            <a:ext cx="845280" cy="964080"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="Ink 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{83E84007-BCB2-8794-FC3F-61CADCEBB953}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId34"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="11402295" y="2762177"/>
+              <a:ext cx="862890" cy="981196"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>105520</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>146960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1564240</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>177040</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB14DC45-1CDD-AE29-C4B5-1C66BED75CA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="13679280" y="2788560"/>
+            <a:ext cx="1458720" cy="2610720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="22" name="Ink 21">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB14DC45-1CDD-AE29-C4B5-1C66BED75CA0}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId36"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="13670640" y="2780134"/>
+              <a:ext cx="1476360" cy="2627924"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38057</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>148680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>20400</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>259543</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71878DB-571D-BCDD-A489-29A6783BB550}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1162080" y="148680"/>
+            <a:ext cx="14098320" cy="4577760"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="27" name="Ink 26">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B71878DB-571D-BCDD-A489-29A6783BB550}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId38"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1153446" y="139962"/>
+              <a:ext cx="14115948" cy="4594848"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>58217</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>144041</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>4606</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>102695</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3C7614-43BE-8E88-B43A-AD0115D046E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="1182240" y="406800"/>
+            <a:ext cx="11055240" cy="2586240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="32" name="Ink 31">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E3C7614-43BE-8E88-B43A-AD0115D046E9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId40"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="1173601" y="398442"/>
+              <a:ext cx="11072878" cy="2603305"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -839,24 +1183,24 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>518160</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>156920</xdr:rowOff>
+      <xdr:colOff>137794</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>90290</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>2013720</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>68760</xdr:rowOff>
+      <xdr:colOff>820475</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>220097</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="49" name="Ink 48">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FE2E10-BD69-3BB1-FBFA-46F0F376A3A3}"/>
+            <xdr14:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD327C3-F5D3-2D8F-A845-51CCBFFAA9FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr14:cNvPr>
@@ -864,98 +1208,33 @@
           </xdr14:nvContentPartPr>
           <xdr14:nvPr macro=""/>
           <xdr14:xfrm>
-            <a:off x="8595360" y="3591000"/>
-            <a:ext cx="4635000" cy="1232640"/>
+            <a:off x="8224920" y="1929600"/>
+            <a:ext cx="3996360" cy="1443600"/>
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
       <mc:Fallback>
         <xdr:pic>
           <xdr:nvPicPr>
-            <xdr:cNvPr id="49" name="Ink 48">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{79FE2E10-BD69-3BB1-FBFA-46F0F376A3A3}"/>
+            <xdr:cNvPr id="36" name="Ink 35">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FD327C3-F5D3-2D8F-A845-51CCBFFAA9FA}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
             <xdr:cNvPicPr/>
           </xdr:nvPicPr>
           <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId42"/>
             <a:stretch>
               <a:fillRect/>
             </a:stretch>
           </xdr:blipFill>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="8586719" y="3582357"/>
-              <a:ext cx="4652641" cy="1250285"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:pic>
-      </mc:Fallback>
-    </mc:AlternateContent>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>185880</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>147440</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>1941360</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>210040</xdr:rowOff>
-    </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
-        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
-          <xdr14:nvContentPartPr>
-            <xdr14:cNvPr id="53" name="Ink 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF594EB-AD68-1F27-2B4E-99D866633312}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr14:cNvPr>
-            <xdr14:cNvContentPartPr/>
-          </xdr14:nvContentPartPr>
-          <xdr14:nvPr macro=""/>
-          <xdr14:xfrm>
-            <a:off x="8263080" y="1996560"/>
-            <a:ext cx="4894920" cy="1119240"/>
-          </xdr14:xfrm>
-        </xdr:contentPart>
-      </mc:Choice>
-      <mc:Fallback>
-        <xdr:pic>
-          <xdr:nvPicPr>
-            <xdr:cNvPr id="53" name="Ink 52">
-              <a:extLst>
-                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CBF594EB-AD68-1F27-2B4E-99D866633312}"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvPicPr/>
-          </xdr:nvPicPr>
-          <xdr:blipFill>
-            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId22"/>
-            <a:stretch>
-              <a:fillRect/>
-            </a:stretch>
-          </xdr:blipFill>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="8254440" y="1987920"/>
-              <a:ext cx="4912560" cy="1136880"/>
+              <a:off x="8215925" y="1920864"/>
+              <a:ext cx="4013990" cy="1460723"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -993,8 +1272,8 @@
       <inkml:brushProperty name="color" value="#FF0000"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 618 24575,'15'0'0,"24"-4"0,30-8 0,29-7 0,-40 7 0,2-2 0,10-3 0,3 0 0,6-2 0,2-1 0,8 0 0,3-1 0,-26 8 0,0-1 0,0 2 0,1-1 0,1 2 0,-1-1 0,1 1 0,-1 0 0,1 1 0,0 0 0,1 0 0,-2 0 0,29-3 0,-3 0 0,-5 2 0,-2 0 0,-3 0 0,-2 1 0,-9 1 0,-2 0 0,-5 0 0,-2 1 0,-4-1 0,-4-1 0,34-5 0,1 4 0,-39 7 0,2 1 0,0 2 0,3 2 0,23-1 0,7 0 0,-20 0 0,3 0 0,1 0-270,7-1 0,2 0 0,1 0 270,8-2 0,1 0 0,0 0 0,-6-2 0,-1 1 0,-1-1 0,-6 0 0,-1 0 0,-1 1-58,-4-1 1,0 1 0,-2 0 57,26-1 0,-3 0 0,-7 1 0,-2 0 0,-4 0 0,-3 0 0,-7 0 0,-3 0 0,-4 0 0,-2 0 401,-4 0 1,-1-1-402,46-5 179,-3 2-179,-1 1 0,-5-1 0,-5 3 0,-9 0 0,-6 3 0,1 2 0,8 0 0,9 0 0,6 0 0,-1 0 0,-4 0 0,-5 0 0,-7 0 0,-9 0 0,-13 0 0,-19 0 0,13 0 0,28 0 0,15 0 0,-35 0 0,2 0 0,8-1 0,3 2 0,12 0 0,5 1 0,-20 0 0,3 1 0,1-1 0,3 1 0,1-1 0,-1 1 0,27 0 0,-4 0 0,-9-1 0,-3-1 0,-6-1 0,-3 2 0,-7 1 0,-1 1 0,-2 2 0,-1 1 0,2 1 0,0 0 0,1 1 0,0-1 0,4-1 0,1-1 0,0-1 0,1-1 0,-2-1 0,1-1 0,3-1 0,0 0 0,-1 0 0,1 0 0,1 1 0,0 1 0,-3 1 0,-1 0 0,-5 1 0,-1 1 0,-1 0 0,-2-1 0,-4 1 0,-1 0 0,0 1 0,2 0 0,4 1 0,0 0 0,4 0 0,0-1 0,4 1 0,0 0 0,4-1 0,1 0 0,2 0 0,2-1 0,5 1 0,1-1 0,-1-1 0,-1 0 0,-2 0 0,0-1 0,-4 0 0,0 0 0,1 0 0,0 1 0,5 0 0,3 0 0,7 0 0,3 0-197,-28-1 0,2 0 0,0 0 197,0-1 0,0 1 0,1 1 0,1 0 0,0 1 0,-1 0 0,-1 0 0,0 0 0,0 0 0,-1 0 0,-1 0 0,1 0 0,1 0 0,0 0 0,0 0 0,-3-1 0,1 0 0,-1 1 0,-2 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 1 0,0 0 0,0 2 0,0 0 0,-1 0 0,0 2 0,0 0 0,0 1 0,-1 1 0,0 1 0,30 8 0,0 2 0,-1 1 0,-1 0 0,-29-8 0,1-1 0,-1 0 0,2 1 0,0-1 0,1 0 0,1 0 0,1 0 0,0-1 0,3 2 0,0-1 0,1-1 0,0 2 0,1-1 0,0 0 0,2 1 0,0 0 0,0 1 0,0-1 0,0 1 0,-1 0 0,-4-2 0,-2 1 0,-1-1 0,28 7 0,-2-1 0,-9-2 0,-2 0 0,-9-1 0,-3 0 0,-8-1 0,-3 0 0,25 12 0,-35-13 0,-7-12 0,39-5 0,-27-2 0,6 0 0,2 1 0,5 2 0,5 1-612,19 4 1,6 3 0,2 2 611,-15 1 0,1 1 0,2 2 0,1 1 0,-11-2 0,2 1 0,0 1 0,0 0 0,-1 1 0,16 5 0,-1 2 0,-2-1 0,-1 1 0,-6-2 0,-2 1 0,-1-1 0,-1 0 0,-4-1 0,-2 0 0,-1-1 0,0 1-142,20 7 1,-2 1 0,-2 0 141,-5-2 0,-2 1 0,-1 0 0,-3 1 0,-2 0 0,0 1 0,-4-1 0,-2 0 0,0 0-186,-1-1 0,-1 0 1,1 0 185,1 0 0,1 0 0,-1-2 0,-1-1 0,-1-1 0,0 0 0,1-1 0,-1 0 0,1-1 0,0-1 0,0-1 0,1 0 0,2-1 0,1 0 0,1-1 0,5 0 0,1 0 0,0-1 0,3 1 0,1-1 0,0 1 0,0 0 0,1 0 0,-2 0 0,-1 0 0,-1 0 0,-1 0 0,-2 0 0,0 1 0,-2-1 0,-2 1 0,0 1 0,-2 0 0,-6-1 0,-1 1 0,-1 1 0,-2 1 0,-1 1 0,-2 1 0,24 13 0,-4 2 0,-6-3 0,-4 1 0,-6-1 0,-5-2 0,-15-7 0,-4-3 1735,11 7-1735,11-16 0,-12-14 0,5-3 0,9 0 0,4 0 512,12 3 0,2 1-512,0 5 0,0 4 0,6 7 0,2 6-28,-21-4 1,1 2 0,1 1 27,2 3 0,0 1 0,0 2 0,-1 0 0,-1 1 0,-2 0 0,-7-3 0,-2 0 0,-2 0 0,22 10 0,-2 0 0,-10-4 0,-3-2 0,-8-5 0,-1 0 0,-2-1 0,0 0 0,-4 0 0,-1 0 0,0 1 0,-1 2 364,1 3 1,0 0-365,-1 0 0,0 1 0,1 1 0,0 1 0,0-2 0,0-1 0,-2-2 0,0 0 0,-1-2 0,0-2 0,-2-2 0,-1-1 0,40 23 0,-3-3 0,-5-2 0,-1-2 0,2 0 0,4 1 0,7 0 0,2 2 0,-44-21 0,-1 1 0,0 1 0,-1-1 0,39 24 0,-3-3 0,-4-3 0,-4-3 0,-5-3 0,-12-9 0,12-4 0,27 11 0,-37-13 0,4 4 0,24 13 0,5 5-272,-22-9 1,2 3-1,-1 1 272,-1 0 0,1 0 0,-2 2 0,2 0 0,-2 1 0,-2 1-73,-7-1 1,-3 0-1,-2 1 73,17 18 0,-4 2 0,-4 0 0,-2 1 0,-5 0 0,-3 1 0,-5-5 0,-3 1 0,-3-4 0,-1-1 403,-3-4 0,-2-2-403,21 29 227,-11-16-227,-3-5 0,0 4 0,-2 10 0,-2 5 0,-7-4 0,-7-9 0,-4-11 0,-2-6 0,2 0 0,0 4 0,3 4 0,-1-1 0,-1-6 0,-2-7 0,1-4 0,1-1 0,0 0 0,1-2 0,-1-3 0,1-3 0,2-1 0,0 2 0,0 2 0,-3 2 0,-1-4 0,-4-4 0,-3-4 0,-3-4 0,-1 0 0,1 1 0,1-1 0,5 1 0,2-2 0,4-1 0,2-1 0,1 0 0,0-1 0,3 0 0,2-1 0,2 2 0,1 0 0,-1-1 0,-2 0 0,3-2 0,2-1 0,8 0 0,3 0 0,-4 0 0,-2-2 0,-3-1 0,1 1 0,3 1 0,-1 4 0,0 1 0,-4 2 0,0-1 0,3-2 0,0-1 0,0-1 0,-4-2 0,-3 2 0,-3-2 0,-4-1 0,-3 1 0,-7-3 0,-5 1 0,-2 0 0,2 2 0,7 5 0,7 3 0,6 2 0,3 0 0,-1 0 0,-3 0 0,-3-1 0,-4-2 0,-2-4 0,-3-3 0,-2-1 0,-3-2 0,0 3 0,5 0 0,3-1 0,5 0 0,-2 1 0,-5-3 0,-5 0 0,-6-2 0,-3-2 0,1 0 0,1 0 0,3 0 0,0 0 0,-1 0 0,-4 0 0,-3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2011">33566 8442 24575,'31'20'0,"6"9"0,4 8 0,-4-3 0,-7-8 0,-10-9 0,-8-4 0,-5-2 0,-5-2 0,-4-3 0,-4 2 0,-2 0 0,-6 2 0,-7 6 0,-3 4 0,-6 4 0,3-2 0,6-6 0,7-5 0,9-6 0,3-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 635 24575,'11'0'0,"17"-4"0,21-8 0,22-8 0,-30 8 0,3-3 0,6-2 0,2 0 0,5-3 0,1-1 0,6 1 0,2-2 0,-18 9 0,-1-1 0,0 1 0,2 0 0,-1 2 0,0-2 0,1 2 0,-1 0 0,1 0 0,0 1 0,1 0 0,-2-1 0,21-2 0,-2 0 0,-4 1 0,-1 1 0,-3 0 0,-1 1 0,-6 0 0,-2 1 0,-3 0 0,-2 1 0,-2-2 0,-4 0 0,25-5 0,1 3 0,-29 8 0,3 1 0,-1 2 0,2 2 0,17-1 0,4 0 0,-13 0 0,1 0 0,2 0-270,4-1 0,2 0 0,0 0 270,6-2 0,1 0 0,0 0 0,-4-2 0,-1 1 0,-1-2 0,-4 1 0,-1 0 0,-1 1-58,-2-1 1,-1 1 0,0 0 57,17-1 0,-1-1 0,-5 2 0,-2 0 0,-3 0 0,-2 0 0,-5 0 0,-2 0 0,-2 0 0,-3 0 401,-2-1 1,-1 0-402,33-5 179,-2 2-179,-1 1 0,-3-2 0,-4 4 0,-6 0 0,-5 3 0,1 2 0,6 0 0,6 0 0,4 0 0,0 0 0,-3 0 0,-4 0 0,-4 0 0,-7 0 0,-10 0 0,-13 0 0,9 0 0,21 0 0,10 0 0,-25 0 0,1 0 0,6-1 0,2 2 0,9 0 0,4 1 0,-15 0 0,2 1 0,1-1 0,2 1 0,1-1 0,-1 2 0,20-1 0,-3 0 0,-7-1 0,-2-1 0,-4-1 0,-3 2 0,-4 1 0,-1 1 0,-2 2 0,0 1 0,1 2 0,0-1 0,1 1 0,0-1 0,2-1 0,2 0 0,-1-2 0,1-1 0,-1-1 0,1-1 0,1-1 0,1 0 0,-1 0 0,0 0 0,1 1 0,1 1 0,-3 1 0,-1 1 0,-3 0 0,-1 1 0,0 0 0,-2-1 0,-3 1 0,-1 0 0,1 2 0,0-1 0,4 1 0,0 0 0,2 1 0,1-2 0,2 1 0,1 0 0,2-1 0,1 1 0,2-1 0,0-1 0,5 1 0,0-1 0,0-1 0,-2 1 0,0-1 0,-1-1 0,-2 0 0,-1 0 0,1 0 0,0 1 0,4 0 0,2 1 0,5-1 0,2 0-197,-20-1 0,2 0 0,-1 0 197,1-1 0,-1 1 0,1 1 0,1 1 0,0 0 0,-1 0 0,-1 0 0,1 0 0,-1 0 0,0 1 0,-1-1 0,1 0 0,0 0 0,1 0 0,-1 0 0,-2 0 0,1-1 0,0 1 0,-3 0 0,1 1 0,0 0 0,0 2 0,0-1 0,0 1 0,0 0 0,-1 3 0,1-1 0,-1 0 0,1 3 0,-1-1 0,0 1 0,-1 2 0,1 0 0,21 9 0,-1 2 0,1 0 0,-2 1 0,-20-8 0,0-2 0,0 1 0,1 0 0,0 0 0,1-1 0,1 1 0,0-1 0,0 0 0,3 1 0,-1 0 0,1-2 0,0 3 0,1-2 0,0 1 0,2 0 0,-1 1 0,0 0 0,0 0 0,1 0 0,-2 1 0,-2-3 0,-2 2 0,0-1 0,20 6 0,-2 0 0,-6-3 0,-2 1 0,-6-1 0,-2-1 0,-7 0 0,-1-1 0,18 13 0,-25-13 0,-6-13 0,29-5 0,-20-2 0,5 0 0,1 1 0,3 2 0,4 1-612,14 4 1,4 4 0,2 1 611,-11 2 0,0 0 0,2 2 0,1 2 0,-9-3 0,3 2 0,-1 0 0,0 1 0,-1 0 0,12 6 0,0 2 0,-3-2 0,1 2 0,-6-2 0,0 1 0,-2-2 0,0 1 0,-3-1 0,-1-1 0,-1 0 0,0 0-142,14 8 1,-1 1 0,-2 0 141,-3-2 0,-2 1 0,0-1 0,-3 2 0,-1 0 0,0 1 0,-3-1 0,-1 0 0,0 0-186,-1-2 0,-1 1 1,1 0 185,1 0 0,0 0 0,0-2 0,-1-2 0,-1 0 0,1 0 0,0-2 0,-1 1 0,1-1 0,0-2 0,0 0 0,1 0 0,1-2 0,1 1 0,0-2 0,4 1 0,1 0 0,0-2 0,2 2 0,1-2 0,0 2 0,0-1 0,0 1 0,-1-1 0,-1 1 0,0-1 0,-1 1 0,-2 0 0,1 0 0,-2 0 0,-2 0 0,1 2 0,-2-1 0,-4 0 0,-1 1 0,0 0 0,-2 2 0,-1 1 0,-1 0 0,17 14 0,-3 3 0,-4-4 0,-3 1 0,-5-1 0,-2-2 0,-12-7 0,-3-4 1735,9 8-1735,7-16 0,-8-15 0,3-3 0,6 0 0,4 0 512,8 3 0,2 1-512,-1 5 0,1 5 0,4 6 0,1 7-28,-14-4 1,0 1 0,0 2 27,3 3 0,-1 0 0,0 3 0,-1 0 0,0 1 0,-2 0 0,-4-3 0,-3 0 0,0-1 0,15 11 0,-1 1 0,-8-5 0,-1-3 0,-7-4 0,0 0 0,-1-1 0,-1-1 0,-2 1 0,-1 0 0,0 1 0,-1 2 364,1 3 1,0-1-365,-1 1 0,0 1 0,1 1 0,0 1 0,0-2 0,0-1 0,-2-2 0,1 0 0,-1-2 0,-1-3 0,0-1 0,-2-1 0,30 23 0,-3-3 0,-4-2 0,0-1 0,2-1 0,2 1 0,5 0 0,2 2 0,-32-21 0,-1 0 0,0 2 0,0-1 0,27 24 0,-1-3 0,-3-3 0,-4-3 0,-3-3 0,-8-9 0,8-4 0,20 11 0,-28-14 0,4 5 0,17 13 0,4 5-272,-16-9 1,1 3-1,0 1 272,-1 0 0,0 0 0,-1 2 0,2 0 0,-2 1 0,-1 1-73,-6 0 1,-1-1-1,-2 1 73,12 18 0,-2 3 0,-4 0 0,-1 1 0,-3-1 0,-3 2 0,-3-5 0,-3 0 0,-1-3 0,-1-2 403,-3-3 0,-1-3-403,16 30 227,-9-16-227,-2-6 0,0 5 0,-1 10 0,-2 5 0,-4-4 0,-6-9 0,-3-12 0,-1-6 0,1 1 0,1 3 0,1 5 0,0-2 0,-1-6 0,-1-7 0,0-4 0,1-1 0,0 0 0,1-2 0,-1-3 0,1-3 0,1-2 0,1 3 0,-1 2 0,-2 2 0,-1-4 0,-2-5 0,-3-3 0,-2-5 0,0 1 0,0 0 0,1-1 0,3 2 0,2-3 0,3 0 0,1-2 0,1 0 0,0 0 0,2-1 0,2-1 0,1 2 0,1 1 0,-1-2 0,-2 0 0,3-1 0,1-2 0,6 0 0,2 0 0,-3 1 0,-1-3 0,-3-1 0,2 1 0,1 1 0,0 5 0,0 0 0,-4 2 0,1 0 0,2-3 0,0-1 0,0-1 0,-3-1 0,-2 1 0,-2-2 0,-3-1 0,-2 1 0,-5-2 0,-4 0 0,-1 0 0,1 2 0,5 5 0,5 4 0,5 1 0,2 1 0,-1-1 0,-3 1 0,-1-2 0,-3-2 0,-2-3 0,-2-4 0,-1-1 0,-2-2 0,-1 3 0,5 1 0,1-2 0,4 0 0,-1 1 0,-5-3 0,-2 0 0,-5-2 0,-2-2 0,0 0 0,2 0 0,1 0 0,1 0 0,-2 0 0,-2 0 0,-2 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2011">24111 8676 24575,'22'21'0,"5"9"0,2 8 0,-2-3 0,-5-9 0,-8-8 0,-5-5 0,-4-1 0,-4-3 0,-2-3 0,-4 2 0,0 0 0,-5 3 0,-6 5 0,-1 5 0,-4 3 0,1-1 0,5-7 0,5-4 0,7-7 0,1-3 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1014,16 +1293,15 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:54:51.202"/>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-18T14:09:07.245"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FF0000"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 966 24575,'16'11'0,"18"8"0,21 10 0,9 3 0,11 5 0,3 0 0,-34-16 0,3 0 0,11 4 0,3 1 0,2 0 0,2 0 0,6 4 0,2 1 0,3 2 0,1 1 0,2 2 0,0 2 0,5 1 0,2 0 0,2 2 0,1-2 0,1 0 0,0 0 0,-1-1 0,0 1 0,-5-3 0,0 1 0,-4-3 0,-1 0 0,-3-2 0,-1-2 0,-3-2 0,-1-1 0,0-2 0,-1 0 0,-2-2 0,-1 1 0,-4-2 0,-1 0 0,-2-1 0,-1 0 0,-3 0 0,0-1 0,-1 0 0,0-1 0,3 0 0,0 0 0,2 1 0,-1-1 0,3 1 0,-1 0 0,0 1 0,0 1 0,-2-1 0,0 1 0,0 0 0,0 1 0,-1-1 0,1 1 0,3 0 0,0-1 0,1 1 0,0 0 0,2 0 0,0 0 0,-1-2 0,0 0 0,-3-1 0,-1-1 0,0-1 0,0-1 0,-1-1 0,-1-1 0,1-1 0,0 0 0,0-2 0,-1 0 0,-1 0 0,0-1 0,-2 0 0,0 0 0,-5-1 0,-1 1 0,40 8 0,-13-3 0,-11-1 0,-8-3 0,-9 0 0,-9-2 0,-11-3 0,-7-2 0,13-3 0,20-2 0,15 0 0,24 6 0,-42-1 0,1 2 0,4 1 0,2 2 0,10 1 0,1 1 0,0 0 0,0-1 0,4 1 0,0 0 0,4 1 0,0 1 0,-2-1 0,2 1 0,5 2 0,3-1 0,5 2 0,3-2 0,4 1 0,2-2 0,-32-5 0,0 0 0,1-1 0,-1-2 0,0 0 0,0-1 0,0-1 0,0 0 0,-1-1 0,29 1 0,-2-2 0,1 0 0,0 0 0,-1-1 0,0-1 0,-1 0 0,0 0 0,-1 0 0,-1 0 0,-7-1 0,-3-1 0,-6-2 0,-3-1 0,-3-2 0,-2-2 0,-1-2 0,-1-1 0,-6-1 0,0-1 0,-4-1 0,-1-1 0,1-2 0,-1 0 0,2-2 0,-1 0 0,1 0 0,1-1 0,1 0 0,-1 0 0,-3 1 0,-1-1 0,0 1 0,-1-1 0,-4 1 0,0-2 0,38-19 0,-6-1 0,-9-1 0,-3 1 0,-6 2 0,-6 3 0,-4-2 0,-5 0 0,-1-3 0,1-2 0,-2-4 0,-2-2 0,-2 1 0,-6 0 0,-5 4 0,-2-1 0,-3 1 0,1-2 0,2-1 0,-1 4 0,0 3 0,-4 7 0,1 3 0,-3 1 0,-1 0 0,0 1 0,-2-1 0,2-1 0,1 1 0,4-2 0,0 0 0,1 2 0,0 0 0,-3 5 0,-2 1 0,-2 1 0,-2 1 0,-2 0 0,-2 4 0,-2 2 0,0-2 0,2-1 0,3-3 0,-2-1 0,1 1 0,-3 4 0,-2 2 0,-2 2 0,-2 3 0,-2-3 0,2 1 0,0-1 0,-1 0 0,0 1 0,-1 2 0,0-2 0,0 0 0,1-1 0,-2 2 0,-1 2 0,-1 2 0,1 3 0,1 1 0,0-3 0,0-4 0,1-8 0,1-10 0,0-4 0,1 1 0,-2 2 0,-1-2 0,0-1 0,-2-10 0,0-3 0,0 4 0,0-1 0,0 4 0,0 0 0,0-3 0,0-3 0,0-2 0,0-3 0,0 1 0,0 1 0,0 4 0,0 6 0,0 5 0,-1 8 0,-1 4 0,0 4 0,0 0 0,2 1 0,-2 0 0,0-2 0,0-2 0,1-3 0,1 2 0,0 4 0,0 6 0,1 6 0,3 3 0,3 1 0,3 1 0,2 0 0,4-4 0,0 0 0,2-1 0,-1 2 0,-2 3 0,0 0 0,1 0 0,-1-2 0,1 0 0,2 0 0,1 0 0,3 0 0,1 0 0,1 0 0,0 1 0,-2 1 0,-1 0 0,-4 0 0,-3 0 0,-4 0 0,-2 0 0,-3 0 0,1 0 0,1 0 0,1 0 0,2 0 0,-1 0 0,-1 0 0,-1 0 0,-2 0 0,-1 0 0,0 0 0,1 0 0,-2 0 0,0 0 0,-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1955">12559 1 24575,'6'2'0,"0"-1"0,0 3 0,0-1 0,1-1 0,0 1 0,1 0 0,-2 0 0,0 2 0,2-1 0,1 2 0,3 1 0,-1-1 0,2 3 0,-1 0 0,0 0 0,2 0 0,0 0 0,1 2 0,1-1 0,-1-1 0,0 0 0,1-2 0,-2 1 0,0-1 0,-1-1 0,-2-1 0,-3-2 0,-1 1 0,-4 0 0,0-1 0,-1-1 0,-2 1 0,0 2 0,-2 2 0,-6 3 0,-8 3 0,-9 0 0,-6 2 0,-2-1 0,-1-1 0,0 2 0,3-2 0,4-3 0,7-1 0,8-3 0,6-3 0,4-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 5401 24575,'25'0'0,"18"-2"0,15-3 0,22-5 0,11-4 0,5 0 0,0 1 0,-20 3 0,-15 3 0,-10 3 0,-3 2 0,-2 2 0,-3 0 0,-4 0 0,-4 0 0,-2 0 0,0-2 0,-1-1 0,-4 1 0,-3 0 0,-4 2 0,-1 0 0,3 0 0,19-2 0,7-3 0,18-3 0,28-5 0,-39 4 0,4 0 0,14-2 0,2-2 0,3-2 0,1-2 0,1-1 0,1-2 0,-1 0 0,0-1 0,4-1 0,-1 1 0,1 0 0,0 2 0,-1 0 0,-1 2 0,-2 1 0,-2 0 0,-2 2 0,-2 0 0,-2-1 0,0 0 0,-5 0 0,-1-1 0,-2 1 0,-2-1 0,-6 1 0,-2-1 0,-4 1 0,-2 1 0,38-13 0,-7 0 0,-4-2 0,-9 1 0,-12 4 0,-13 7 0,-11 8 0,-3 3 0,3-1 0,4 0 0,4-2 0,1-1 0,3-1 0,1-1 0,5-2 0,4-1 0,13-7 0,19-8 0,-31 10 0,4 0 0,10-3 0,3-1 0,3-1 0,1 0 0,7-1 0,3 1 0,3 0 0,1 2 0,5 1 0,1 2 0,-29 8 0,1 0 0,-1 1 0,28-2 0,0 1 0,-5 1 0,-4 2 0,-11 2 0,-5 0 0,-11 3 0,-4 0 0,18-1 0,-32 4 0,-17 1 0,-9 0 0,18-4 0,39-16 0,-24 6 0,5-3 0,22-9 0,8-4 0,-11 3 0,5-2 0,3 0-409,-10 4 1,3 0-1,1 0 1,1-1 408,4-1 0,2-1 0,-1 1 0,0 0 0,-4 2 0,-1 1 0,-1 0 0,-1 1-201,13-4 1,-1 1 0,-3 1 200,-10 2 0,-2 1 0,-1 0 0,0 0 0,-2 1 0,1 0 0,-2 0 0,1 1 0,-1-1 0,-1-1 0,0 1 0,1-1 0,1 0 0,2 0 0,-1 0 0,-3 0 0,1 1 0,-3-1 0,25-8 0,-2 2 0,-7 2 0,-2 2 0,-3 0 0,0 0 0,3-1 0,0 1 791,3-2 0,-1 1-791,-4 0 0,-1 1 326,-8 3 1,-1 0-327,-10 3 0,-2 0 0,32-10 0,-11 1 0,-3 0 0,0 2 0,-3-1 0,1 2 0,10-2 0,16-3 0,-41 14 0,2-1 0,6-1 0,2-1 0,4 0 0,2-1 0,5 0 0,2-1 0,9-1 0,4 1 0,-22 6 0,1 0 0,1 1-250,6 1 1,0 0 0,2 1 249,5 0 0,0 1 0,1 1 0,0 1 0,-1 0 0,-1 0 0,-6 1 0,-2 0 0,-1 0 0,24-4 0,-3 0 0,-15 1 0,-4 0 0,-13 1 0,-4 1 0,24-3 0,-29 5 0,7-10 0,33-22 0,-36 12 0,4-2 0,27-13 0,6-4-428,-21 10 0,2-2 0,2 0 428,9-4 0,2 0 0,2-1 0,-17 9 0,2-1 0,-1 0 0,-1 2 0,18-8 0,-2 2 0,-1 1-27,-6 4 0,-1 3 0,0 0 27,-4 4 0,0 1 0,0 1 0,-1 2 0,-1 0 0,0 1 0,-3 2 0,-2 0 0,0 0-27,27-7 1,-2 0 26,-9 3 0,-2-2 0,-4-1 0,0-1 0,2-2 0,0-2 0,7-3 0,0-1 0,1-1 0,-1-1 0,-2 3 0,-2-1 0,-8 4 0,-4-1 0,-10 5 0,-1 0 637,-2 2 1,-1 0-638,1 1 0,0 1 416,1 1 0,0 2-416,1 0 0,0 1 29,-3 1 1,0 2-30,0 2 0,1 1 0,5-1 0,1 0 0,8 0 0,3 1 0,8 0 0,2 1 0,4 0 0,0 2 0,-3 3 0,0 0 0,-9 2 0,-2 1 0,-7-2 0,-1 0 0,-7-1 0,-1 0 0,-1-3 0,-1 0 0,-2 0 0,0-1 0,-1 0 0,-1 0 0,3-1 0,0 0 0,0-1 0,1 1 0,2-1 0,0 1 0,-7 2 0,-1 0 0,46-8 0,-4 2 0,-1 2 0,1 1 0,-15 4 0,-15 4 0,-16 1 0,-11 2 0,-3 1 0,12 1 0,16 0 0,9 0 0,-3 0 0,-15 0 0,-13 0 0,-9 0 0,-8 0 0,-3 0 0,-3 0 0,-2 0 0,0 0 0,2 0 0,0 0 0,0 0 0,0 0 0,-2 0 0,2 0 0,1 0 0,4 0 0,16 0 0,17 0 0,10 0 0,8 0 0,-8 0 0,-10 4 0,-2 3 0,-6 2 0,8 0 0,7-2 0,5-3 0,-1-1 0,-9-1 0,-9-2 0,-10 0 0,-9 0 0,-3 0 0,7 0 0,19 2 0,26 7 0,-29 1 0,2 1 0,4 3 0,-1 0 0,-3 1 0,-2 0 0,30 10 0,-20-10 0,-8-6 0,7-5 0,19-1 0,13 3 0,7 3 0,2 5 0,-2 3 0,-1 2 0,-6 2 0,-16-2 0,-18-2 0,-20-5 0,-13-4 0,-5-2 0,-1-2 0,0 2 0,0-3 0,0 0 0,-2 0 0,0-1 0,1 0 0,1 0 0,0-2 0,-2 0 0,-3 0 0,-3 0 0,-2 0 0,-1 0 0,-1 0 0,-3 0 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2070">24005 208 24575,'13'0'0,"9"0"0,1 1 0,3 2 0,-5 1 0,1 7 0,5 5 0,1 5 0,-1 1 0,-10-6 0,-8-5 0,-5-3 0,-4-3 0,0 0 0,0 0 0,0 1 0,-2 3 0,-3 2 0,-5 0 0,-6 1 0,-1 0 0,0-2 0,2 1 0,0-1 0,0 1 0,1 0 0,1-3 0,3-1 0,2-2 0,1 1 0,0-1 0,1 0 0,-1 0 0,2-1 0,1 0 0,2-3 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1043,20 +1321,19 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:55:11.305"/>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-18T14:09:36.401"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FF0000"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 32 24575,'23'-2'0,"22"-3"0,42-1 0,11-1 0,-38 4 0,3 0 0,7 1 0,1 1 0,-1 0 0,1 0 0,8 1 0,1 0 0,-6 0 0,0 0 0,-3 0 0,-1 0 0,3 0 0,0 0 0,4 0 0,1 0 0,2 0 0,1 0 0,-2 0 0,0 0 0,1 0 0,-2 0 0,-3 0 0,-2 0 0,-2 0 0,-2 0 0,-3 0 0,-1 0 0,-8 0 0,-3 0 0,34 1 0,-25 1 0,-23 2 0,-10 0 0,1-2 0,37 0 0,31-2 0,-25 0 0,7 0 0,13 0 0,2 0 0,-27 0 0,2 0 0,0 0 0,4 0 0,1 0 0,-1 0 0,-7 0 0,-1 0 0,0 0 0,32 0 0,0 0 0,-2 0 0,0 2-264,-24 0 0,0 1 0,2 0 264,4 2 0,0 0 0,2 2 0,5 0 0,1 1 0,-1 1 0,-6-1 0,0 2 0,-2-1 0,-6-1 0,-3 0 0,1 0-52,30 4 0,-3-1 52,-10 0 0,-3 0 0,-1 0 0,0 0 0,-6 1 0,-2 0 0,-1 0 0,0 0 0,1 0 0,2 0 0,4 0 0,1 0 393,0 1 1,-1-1-394,-2 0 0,-2 0 54,-1 1 1,-2 1-55,-5 1 0,-2 2 0,0 0 0,0 3 0,-1 0 0,0 2 0,-1-1 0,-1 0 0,0-2 0,0 1 0,-3-2 0,-1 0 0,-3-2 0,-2 1 0,-2-2 0,-1 1 0,-4 0 0,-1-1 0,42 13 0,-5-2 0,-2-1 0,1-2 0,1 2 0,4 2 0,0 1 0,-7 1 0,-9 0 0,-16-3 0,-15-3 0,-12-6 0,-12-5 0,-1-5 0,15-4 0,29 12 0,21 10 0,-28-5 0,3 4 0,8 7 0,1 2 0,1 1 0,1 2 0,2 0 0,-2 1 0,-6-4 0,-2-1 0,-5-3 0,0-1 0,2 0 0,1 1 0,7 4 0,2 2 0,4 3 0,0 2 0,3 4 0,0 1 0,-2 1 0,-2 0 0,-1 0 0,-2 0 0,-2-3 0,0-1 0,-5-2 0,0-1 0,-3-3 0,-2-2 0,-6-3 0,-2-2 0,36 25 0,-15-10 0,-16-9 0,-12-8 0,-8-6 0,-5-3 0,-1 0 0,1 2 0,3 2 0,0 1 0,1 0 0,3 0 0,4 1 0,9 6 0,8 2 0,5 5 0,0-1 0,-2-3 0,-9-3 0,-7-5 0,-11-5 0,-9-6 0,-1-6 0,-2-5 0,15-1 0,7 3 0,5 3 0,3 2 0,-10-2 0,-4-2 0,-7-4 0,-3 0 0,-2-2 0,0 0 0,-2 0 0,0 0 0,2 0 0,1 0 0,2 0 0,-3 0 0,-3 0 0,-4 0 0,-5 0 0,-2 0 0,-3 0 0,0 0 0,5 0 0,2 0 0,6 0 0,3 0 0,4 0 0,3 0 0,-3 0 0,0 0 0,-3 0 0,-4 0 0,1 0 0,-1 0 0,0 0 0,-2 0 0,-4 0 0,-3 0 0,1 0 0,1 1 0,7 0 0,7 2 0,3 0 0,1 1 0,-3-2 0,-4 1 0,-2-1 0,0 2 0,3 0 0,1-2 0,-2 2 0,-2-1 0,-4 0 0,-5 1 0,-5-2 0,-4-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2396">13212 2706 24575,'9'0'0,"6"0"0,6 0 0,0 0 0,-1 2 0,-4 1 0,-4 2 0,1 1 0,1 1 0,0 1 0,3 3 0,1-1 0,0-1 0,-4-2 0,-5-3 0,-3 0 0,-3-2 0,3-1 0,2 1 0,1 0 0,2 0 0,-1 1 0,-2 0 0,1 1 0,-1 1 0,2 1 0,3 0 0,0 2 0,2-3 0,-4 0 0,-3-2 0,-3-1 0,-4 1 0,-1 1 0,-5 2 0,-4 3 0,-9 3 0,-10 3 0,-9 0 0,-10 6 0,-4 2 0,0 3 0,1 0 0,6-2 0,9-4 0,8-2 0,7-2 0,8-3 0,2-3 0,6-5 0,2-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'29'0'0,"29"0"0,28 0 0,8 0 0,-8 0 0,-15 0 0,-10 0 0,0 0 0,0 0 0,5 0 0,9 6 0,8 6 0,-6 6 0,-6 3 0,-13-1 0,-6 0 0,0 4 0,1 2 0,-1 1 0,-8-1 0,-6-3 0,-9-2 0,-5-1 0,3 2 0,0 3 0,7 4 0,4 1 0,-1 0 0,-2-1 0,-8-5 0,-5-4 0,-5-2 0,-2-2 0,0-1 0,0 1 0,-2-1 0,-1 1 0,-2 0 0,0 1 0,0 2 0,-1 1 0,1 1 0,-1 1 0,0 1 0,-1 2 0,0 6 0,0 6 0,0 5 0,-1 1 0,-1-4 0,-2-2 0,-1 0 0,-1 0 0,-2 3 0,0 2 0,0-2 0,0 0 0,0-4 0,0-7 0,0-3 0,0-4 0,0-3 0,0 0 0,0 2 0,0 3 0,0 2 0,0 2 0,0 4 0,0 3 0,0 2 0,0-3 0,0-2 0,0-2 0,0-1 0,0 0 0,0 3 0,0 3 0,0 1 0,0-1 0,0-3 0,0-2 0,0 0 0,0 0 0,0 2 0,0 2 0,0 2 0,0 4 0,0 2 0,0 3 0,0 0 0,0-2 0,0-8 0,0-9 0,0-7 0,0-3 0,0-2 0,0-1 0,1-2 0,0 0 0,4 2 0,2 1 0,1 2 0,3-1 0,0 1 0,2-1 0,0 0 0,0 1 0,-2-2 0,-2-2 0,-2-2 0,-3-3 0,0-2 0,-1-1 0,1-1 0,0-1 0,-1-1 0,1 0 0,-1-1 0,1 0 0,0 0 0,0 0 0,0-1 0,0-4 0,1-2 0,-1-3 0,0 0 0,-1 0 0,-1 3 0,-1 1 0,-1 1 0,1 2 0,1 2 0,0-1 0,-1-1 0,0 0 0,0-1 0,1 1 0,0-2 0,1 1 0,-1 0 0,0 0 0,-1 1 0,-1 0 0,2 1 0,0 0 0,-1 2 0,1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2184">2035 2395 24575,'13'0'0,"1"0"0,1 1 0,-1 1 0,-1 2 0,2 1 0,1 0 0,1 1 0,0 0 0,-2 0 0,0 1 0,-1 0 0,-1-1 0,0 2 0,6 3 0,4 5 0,2 3 0,-3-3 0,-6-4 0,-9-5 0,-6-5 0,-7-1 0,-1-1 0,-3 0 0,-2 0 0,-1 0 0,-4 3 0,0 3 0,0 3 0,0 3 0,-1 0 0,-1 2 0,-5 1 0,-4 4 0,-3 5 0,0-1 0,4 0 0,7-3 0,7-4 0,4-4 0,4-5 0,1-5 0,3-2 0,1-2 0</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink12.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1072,21 +1349,103 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:51:44.365"/>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-18T14:16:40.550"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FF0000"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 646 24575,'23'-4'0,"37"-9"0,-4 0 0,8-2 0,10-2 0,7 0 0,-9 2 0,4 0 0,5 0-1099,-7 2 1,2 0 0,4 0-1,2 0 1099,-6 2 0,1 0 0,3 0 0,2 0 0,3 0-515,-2 1 0,3-1 0,2 0 0,2 1 0,0-1 0,1 1 515,-7 0 0,1 1 0,0-1 0,1 1 0,1-1 0,0 1 0,1 0-263,5-1 1,0 0 0,1 1 0,1-1 0,0 1 0,1-1 0,-1 1 262,3 0 0,0 0 0,0-1 0,0 1 0,1 1 0,0-1 0,1 1-358,-9 0 1,0 0 0,0 1 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 1 357,-1 0 0,0 1 0,0-1 0,0 1 0,0 1 0,-1-1 0,1 0 0,-1 1 0,-1 0 0,0 0 0,-1 0 0,0 0 0,1 1 0,-1-1 0,0 1 0,0 0-123,1 0 0,0 1 0,0-1 1,0 1-1,0-1 0,-1 1 1,-1 1-1,-1-1 123,4 0 0,-1 1 0,-1 0 0,0 0 0,-2 0 0,1 0 0,-1 0 39,11 0 1,0 0 0,0 1 0,-1-1 0,-1 0 0,0 1-40,-5 0 0,1 0 0,-2-1 0,0 2 0,0-1 0,-2 0 0,11 0 0,-1 1 0,-1 0 0,0 0 0,0 0 185,0 1 0,0 0 0,0 1 0,0 0 0,-1 1-185,-3 0 0,0 1 0,-1 0 0,0 1 0,-2 0 0,-3 0 0,-2 1 0,0 0 0,0 0 0,-2 1 443,18 1 0,-1 0 0,-1 1 0,-1-1-443,-2 0 0,-2 0 0,0 0 0,-1 0 0,-4-2 0,0 1 0,0-1 0,-2 0 0,-2 0 0,0-1 0,-2 0 0,1 0 514,-5-1 1,-1 0 0,1 0 0,-2-1-515,24 2 0,-2-1 0,1 0 0,-4 0 0,0-1 0,1 1 0,2 0 0,1 0 0,0-1 0,-23-1 0,1 1 0,-1-1 0,1 0 0,0 0 0,1-1 0,-1 1 0,1 0 0,1-1 0,-1 1 0,1 0 0,-1-1 0,0 1 0,-1 0 0,1-1 0,-1 1 0,1 1 0,0 0 0,-1 1 0,1-1 0,1 0 0,-1 0 0,1 0 0,0-1 0,1 0 0,0 0 0,0 0 0,1 0 0,0 0 0,0 1 0,0-1 0,1 1 0,0-1 0,-1 1 0,1 0 0,0 1 0,-1 1 0,0 1 0,1 0 0,-1 2 0,0 0 0,1 2 0,-1 0 0,-1 1 0,20 3 0,-1 1 0,-2 0 0,-12 0 0,-2-1 0,-1 1 689,-5 0 1,0 0-1,-1 0-689,-3 0 0,-2 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,-3 0 0,0 1 0,-3-2 0,10 3 0,-7-1 2336,22 3-2336,-2-9 0,-36-5 0,2 0 0,6 2 0,2 2 935,10 4 1,3 4-936,5 6 0,2 3 0,3 4 0,2 3 0,-23-9 0,1 2 0,-1 0 0,27 14 0,-3 1 0,-11-3 0,-3 2 612,-4 3 0,-4 2-612,-6-1 0,-3 3 332,-3 3 0,-4 2-332,-5 2 0,-3 1 0,-6-2 0,-3 1 0,-2 0 0,-3 0 0,-3-3 0,-2 0 0,-3-1 0,0 1 0,-1 1 0,0 3 0,0 5 0,-1 2 0,2 8 0,-1 2 0,0 3 0,1 0 0,-1-1 0,0-1 0,0-2 0,1-2 0,-1-3 0,2-1 0,0 1 0,1 0 0,1 0 0,0-2 0,0 0 0,1 0 0,0-1 0,0 0 0,-1-3 0,-1 0 0,0 0 0,-1-2 0,-2-2 0,-2 0 0,-1-5 0,-2-1 0,8 37 0,-8-25 0,4-24 0,26 6 0,-7-14 0,4 3 0,5 5 0,1 2 0,8 8 0,0 3 0,-3-3 0,0 1 0,0 0 0,0 1 0,4 4 0,0 2 0,-5-2 0,0 0 0,-3 0 0,0-1 0,-5-1 0,-1-1 0,-3-2 0,-3-1 0,-5-6 0,-2-2 0,17 28 0,-8-15 0,-5-9 0,-1-2 0,-4 0 0,0-1 0,-1-1 0,0 0 0,-1-2 0,0-2 0,-3-4 0,-3-4 0,-1-1 0,-1-1 0,3 2 0,1 2 0,2 4 0,2 1 0,0 2 0,1 0 0,2 2 0,8 8 0,8 12 0,6 14 0,-23-32 0,0 2 0,-2 2 0,0 0 0,1 2 0,-1 0 0,-1-2 0,0-1 0,18 34 0,-7-15 0,-12-21 0,-9-12 0,-1 5 0,10 23 0,9 17 0,-9-28 0,2 2 0,4 7 0,0 1 0,1 0 0,-1 1 0,1 2 0,-1 1 0,-4-8 0,-2 0 0,-3-5 0,-2-1 0,13 45 0,-3-4 0,-1 1 0,1-7 0,0-12 0,-3-14 0,-3-16 0,-2-9 0,2-3 0,0 1 0,2 2 0,0 2 0,1 3 0,1 0 0,0 2 0,1 0 0,-2-6 0,-2-6 0,-5-8 0,-5-6 0,-5-6 0,-2-2 0,0-3 0,-1 0 0,0 0 0,2 1 0,3-1 0,8 2 0,11 0 0,7 0 0,5 1 0,-2-3 0,-5 0 0,-5-2 0,-4 0 0,-5 0 0,-5 0 0,-4 0 0,-3 0 0,0 0 0,-2 0 0,1 0 0,0 0 0,-3 0 0,3 0 0,0 3 0,1 1 0,0 4 0,0 1 0,1-1 0,2 3 0,-1-2 0,-2-1 0,-3-2 0,-3-3 0,-1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2129">24133 8597 24575,'24'1'0,"10"8"0,9 8 0,-4 4 0,-10 0 0,-10-5 0,-10-4 0,-2-1 0,-3-4 0,-4-2 0,0 0 0,0 0 0,-2-1 0,-1 1 0,-3-1 0,-1 1 0,-1 1 0,0 0 0,-2 2 0,0-1 0,-1-1 0,1-1 0,0 0 0,-1 0 0,-2 3 0,-3 1 0,-2 2 0,1-1 0,2-3 0,5-1 0,3-2 0,1-1 0,1-2 0,1 1 0,-1 0 0,2 2 0,-1 1 0,-1-1 0,3-1 0,-1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="36163">56 5867 24575,'52'-18'0,"13"-5"0,18-7 0,-3 2 0,-8 5 0,-13 2 0,-12 0 0,-10 2 0,-9-2 0,-6-4 0,-5-6 0,0-11 0,-5-13 0,1-18 0,1-14 0,1-9 0,-1 6 0,2 8 0,5-3 0,8-5 0,-10 41 0,1 0 0,0-3 0,0 2 0,13-42 0,-7 12 0,-7 13 0,-4 10 0,-1-2 0,2-2 0,0-2 0,3-1 0,-2-2 0,0-3 0,1-11 0,1-11 0,-8 42 0,0 0 0,-1-2 0,1 1 0,8-47 0,-1 8 0,0 4 0,-3 4 0,-2 4 0,-4 3 0,-4 7 0,-3 5 0,-1 4 0,1 6 0,2 5 0,2 4 0,3 6 0,2-2 0,2 1 0,3-4 0,1-1 0,1 1 0,0-1 0,1 3 0,0 3 0,5 3 0,3 4 0,7 6 0,6 5 0,5 5 0,2 4 0,-5 4 0,-6 1 0,-7 3 0,-4 1 0,-1-2 0,-2-1 0,-2-3 0,-3 2 0,-2-2 0,-1 2 0,-1 0 0,0 2 0,4-1 0,0 0 0,1 2 0,-1 1 0,-4 1 0,-6 0 0,-7 0 0,-7 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'29'0'0,"13"0"0,16 2 0,3 4 0,1 2 0,-1 4 0,-2 0 0,5 2 0,-3 0 0,-4-2 0,-3 1 0,1-2 0,-5-1 0,-2 0 0,-6-1 0,-3-1 0,-1 0 0,-4 1 0,-3-3 0,-5 0 0,-2-2 0,1 0 0,1 3 0,6 1 0,8 4 0,7 1 0,3 2 0,-1-1 0,-4 0 0,-4-3 0,-1-1 0,-1-2 0,4 3 0,4 1 0,-3 0 0,-4-1 0,-4 0 0,-2 0 0,1 2 0,3 2 0,2 0 0,0 0 0,-4 0 0,-5-4 0,-6-1 0,-6-1 0,-2-1 0,-2 0 0,0 0 0,-2 1 0,0 1 0,-1 0 0,-1 0 0,2 0 0,0 1 0,2 0 0,0 3 0,0 1 0,0 1 0,0-1 0,-1 0 0,-1 1 0,0 0 0,1 2 0,1 5 0,3 1 0,1 2 0,-1 2 0,-1-2 0,-1 3 0,0 4 0,1 1 0,0 3 0,-1 2 0,1-2 0,-2-2 0,-1-1 0,-2-3 0,-3 0 0,0-1 0,-4-1 0,-1-3 0,-2-2 0,1-5 0,0-1 0,1-4 0,-1-4 0,-1 2 0,0 11 0,6 14 0,4 6 0,6 9 0,3 1 0,-2 0 0,1 4 0,-3-9 0,1-4 0,-1-1 0,1 6 0,-2 4 0,0 7 0,0 2 0,-1-1 0,1-4 0,-1-7 0,1-2 0,-1 0 0,0 2 0,1 4 0,-2 2 0,-1-3 0,-1-3 0,-5-2 0,-1-3 0,-1 0 0,-3 3 0,0 3 0,-2 3 0,2-1 0,0-2 0,0-4 0,1-2 0,0 3 0,-1 5 0,0 6 0,-1 6 0,-1 6 0,0 3 0,2 5 0,1 5 0,-1 4 0,3 5 0,0 7 0,-2-49 0,1 1 0,0-1 0,0 0 0,4 43 0,2-18 0,1-27 0,-3-16 0,-2 16 0,1 32 0,3 19 0,-3-40 0,1 2 0,2-2 0,0-1 0,-1-3 0,0-1 0,0 2 0,0-3 0,4 33 0,-2-15 0,0-10 0,0-5 0,2-2 0,-1 1 0,-1 0 0,-2-3 0,-2-3 0,-1-4 0,-1-2 0,-1 1 0,0 1 0,0 0 0,3-3 0,0 0 0,-1 0 0,-1 3 0,-3 5 0,1 2 0,-1-1 0,1-6 0,0-6 0,0-7 0,-1-2 0,0-2 0,-2-1 0,0 1 0,0 0 0,0 1 0,0-1 0,0-3 0,2-4 0,0-3 0,0-2 0,-1-2 0,-1 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,0-2 0,0 0 0,0 0 0,0 2 0,0-1 0,0 0 0,0-1 0,0-2 0,0 2 0,0-1 0,0-1 0,0 2 0,0 1 0,0 1 0,0 0 0,0 1 0,0-1 0,0 0 0,0 1 0,0 1 0,2 1 0,4 4 0,2 5 0,5 1 0,1 1 0,-2-2 0,1-5 0,-1-3 0,-3-2 0,1-2 0,-2-1 0,0-2 0,0-4 0,-1-2 0,1-1 0,-1-1 0,0 2 0,0-1 0,1-1 0,0 3 0,1-2 0,1 2 0,0 0 0,1-1 0,0 1 0,0-2 0,-2 0 0,1-1 0,0-2 0,1 0 0,2-2 0,3 0 0,3 0 0,3 0 0,2 0 0,-2 0 0,-2 0 0,-3 0 0,-2 0 0,-3 0 0,-2 0 0,-3 0 0,-2 0 0,1 0 0,0 0 0,4 0 0,2 0 0,2 0 0,1 0 0,-1 0 0,-1 0 0,-2 0 0,-2 0 0,-1 0 0,-1 0 0,0 0 0,-2 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,0 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1845">3845 7109 24575,'16'-2'0,"9"3"0,8 5 0,1 3 0,-5 6 0,-7-4 0,-6-3 0,-1-2 0,-6-4 0,-4 1 0,-3-2 0,-1 3 0,-3 0 0,-4 4 0,-5 1 0,-6 3 0,-5 4 0,-1 3 0,1 2 0,2-1 0,2-2 0,1-3 0,-1 1 0,1-1 0,2 1 0,4-2 0,3-3 0,1-3 0,2-3 0,1-1 0,1 0 0,1-1 0,-1 0 0,1 0 0,-1 0 0,0-1 0,0 1 0,1 0 0,-1-1 0,1 1 0,0-2 0,2 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink13.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-18T14:17:04.704"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 791 24575,'18'0'0,"17"-1"0,26-3 0,10-3 0,10-7 0,3-4 0,-2-1 0,4 1 0,-8 3 0,-4 2 0,1 1 0,2 2 0,1 2 0,-2 0 0,-5 2 0,-4-1 0,-7 0 0,-4 3 0,-5 1 0,-6 2 0,-7 1 0,-8 0 0,-5 0 0,-7 0 0,1 0 0,28 0 0,41 0 0,-29 1 0,6-2 0,25-3 0,9-3-466,-21 0 0,5-2 0,1-2 466,13-3 0,2-1 0,2-2 0,-21 2 0,1 0 0,1 0 0,-1-1 0,-3 0 0,0 0 0,-1 0 0,0 0 0,20-5 0,-1 1 0,-3 0-221,-8 1 0,-2 1 0,-1 1 221,-3 1 0,-1 2 0,-1 0 0,-6 3 0,0 0 0,-1 2 0,-2 0 0,-1 1 0,1 2 0,1 0 0,0 2 0,-1-1-58,0 1 1,0-1 0,-2 1 57,29 0 0,-1 0 0,-6 1 0,-1 0 0,-4 0 0,-1-1 0,-4 2 0,1 0 0,2-1 0,0 2 0,1-1 0,0 1 0,5 1 0,1 0 0,3 0 0,0 0 0,1 0 0,1 0 0,5 0 0,0 0 0,-3 1 0,0 0 0,0 2 0,1 2-281,-27-2 1,1 1 0,-1 1 280,32 2 0,-4-1 313,-12 0 1,-3-2-314,-8-1 0,0-1 0,0-1 0,2-1 0,14 0 0,10 0-545,-25-1 0,7 0 0,4 0 0,2-1 545,-5 0 0,2 0 0,3 0 0,1-1 0,3-1-579,-2 0 0,2-1 1,1 0-1,3-1 0,1 0 1,1 0 578,-6 0 0,3-1 0,1 0 0,0 0 0,1 0 0,0 0 0,-1 1 0,0-1 0,-1 1 0,1-1 0,-1 1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 0 0,-1 1 0,0 0 0,-3 0 0,8 1 0,-1 1 0,-1 0 0,-1 0 0,-1 1 0,-2 0-35,8 0 0,0 1 1,-3 1-1,-1-1 1,-2 0 34,-10 0 0,-1 0 0,-2 0 0,-1 0 0,-2 0-176,7 0 0,-1 0 0,-3 0 0,-2 0 176,15 0 0,-3 0 0,-3 0 480,-10 0 1,-3 1 0,-1 0-481,-6 1 0,-1 0 0,-2 0 0,25 3 0,-1 1 1815,-5 2 0,-2 0-1815,-3 2 0,-2 1 1169,0-1 0,-1 0-1169,0 2 0,0 0 0,3 1 0,0 1 0,4 0 0,2 1 0,5 1 0,1 1 0,-27-6 0,1 1 0,2-1 182,3 1 0,2-1 1,0 1-183,4 0 0,1 0 0,1 0 0,1 2 0,0 1 0,1 1 0,3 0 0,1 1 0,-1 2 0,1 0 0,0 2 0,0 0 132,-1 1 0,0 1 0,-3-2-132,-11-3 0,-1 0 0,-1-3 0,29 2 0,0-5-1401,-24-10 1,2-4 0,2-3 1400,4-2 0,2-3 0,8-2 0,-14 3 0,5-1 0,4 0 0,4-1 0,2 0 0,-11 2 0,2-1 0,3 1 0,2-1 0,2 0 0,1 1 0,1-1 0,2 2 0,1-1 0,2 0 0,2 0 0,1 1 0,1 0 0,1 0 0,2 1-519,-12 0 0,1 1 1,2 0-1,1 0 1,0 0-1,1 1 1,1-1-1,-1 1 0,0 0 1,0 1 518,2 0 0,-1 0 0,2 0 0,-1 0 0,0 1 0,1 0 0,-1 0 0,0 1 0,-1 0 0,-1 1 0,-3 0 0,0 0 0,0 1 0,-1-1 0,0 2 0,0-1 0,-1 1 0,0 1 0,-1 0 0,0 1-288,6 0 1,-1 1 0,0 1 0,0 0 0,-1 1 0,-1 0 0,0 0 0,-1 2 0,-1 0 287,6 0 0,0 2 0,-2 0 0,0 1 0,0 0 0,-2 1 0,0 0 0,-2 2-233,7 0 1,-2 2 0,0 1 0,-1 0-1,-2 1 1,0 0 0,0 0 232,-7-1 0,1 0 0,-2 1 0,0 0 0,-1 0 0,-1 1 0,-1-1 83,6 1 1,-2 1 0,0 0-1,-2-1 1,-1 1 0,0 0-84,8 2 0,0 0 0,-1 0 0,-3 0 0,-1 0 0,10 2 0,-2 0 0,-3 0 0,-4-2 1048,5 2 0,-4-2 0,-5-2-1048,11 1 0,-3-6 0,-2-7 0,2-6 0,-25-2 0,1-2 0,8-1 405,9 1 1,9-1 0,4-1 0,3 1-406,-8 0 0,4 1 0,2-1 0,2 0 0,1 0-19,-9 1 0,3 0 0,0 0 1,1 0-1,2 0 0,1 0 19,-8 0 0,2 1 0,1-1 0,0 1 0,0 0 0,0 1 0,-1 1 0,-2 0 0,-1 1 0,-1 0 0,0 0 0,1 2 0,-1 0 0,-1 1 0,1 1 0,-1 1 0,0 0 0,0 1 0,0 1 0,-1 1 0,-1 1-44,8 3 1,1 1-1,-2 1 1,-1 1 0,0 2-1,-2 0 44,-5 1 0,0 1 0,-2 1 0,-1 1 0,0 0 0,-2 1-227,10 3 0,-2 1 1,0 1-1,-3 1 1,0-1 226,-7-2 0,-2 0 0,0 1 0,-2-1 0,-1 0 248,11 3 1,-2 0-1,-1 0 1,-2-1-249,15 7 0,-3-1 0,-1 0 0,-5-2 0,0-1 0,-2-1 0,-6-1 0,-1-2 0,-1 0-548,1-1 0,-1-1 0,-2-1 548,20 5 0,-8-4 945,-30-9 0,-3-5-945,39 1 0,-40-12 0,4-2 0,14 2 0,5 1 0,-9 1 0,5 1 0,2 1 262,8 2 0,3 2 1,0 3-263,7 2 0,1 4 0,3 1 0,-16-1 0,2 2 0,0 1 0,-2 2 0,19 8 0,-3 1 0,-3 4 0,-11 0 0,-3 2 0,-4 3 262,-11-3 0,-4 1 0,-4 2-262,10 16 0,-6 3 3179,-6-2 0,-3 1-3179,-8-3 0,-3-1 0,-4-2 0,-3 1 0,-1-2 0,-2 1 595,-1 0 0,-1-1-595,-1 0 0,-1-1 48,-3-1 1,-1 1-49,14 41 0,-6-2 0,-5-1 0,-1 1 0,0 3 0,1 2 0,1 3 0,-13-47 0,0 0 0,0 2 0,0-1 0,1 0 0,-1 0 0,0 2 0,0-1 0,-1 1 0,-1 1 0,-3 0 0,-1-1 0,-2 1 0,-1-2 0,0 34 0,-3-25 0,2 14 0,7-21 0,4 4 0,4 15 0,3 5 0,-2-14 0,1 3 0,1 1-232,4 4 0,1 2 0,-1 1 232,-1 0 0,-1 0 0,0 1 0,0 2 0,0 0 0,-1-2 0,-2-6 0,-1-2 0,0-2 0,3 23 0,0-4 0,-3-5 0,0-3 0,-1-5 0,-1-2 0,-1-4 0,-1-2 0,0-5 0,-1-1 0,-2-4 0,-1-2 348,0 0 0,0-1-348,8 46 0,-2-7 0,0-5 0,-3-5 0,0 0 0,-2 5 0,-2 0 0,0 4 0,0-1 0,0 1 0,1 4 0,-2 2 0,-3-44 0,-1 1 0,0 0 0,-1 0 0,-1 2 0,0 1 0,-1 0 0,-1 1 0,0 0 0,0 0 0,0 0 0,0 0 0,0 44 0,0-16 0,0-28 0,0-22 0,0 4 0,0 26 0,0 22 0,1-28 0,2 5 0,2 10 0,2 2 0,2 3 0,3 2 0,1 3 0,1 0 0,1-10 0,0-5 0,-4-15 0,0-4 0,5 27 0,-7-22 0,-6-17 0,-2-7 0,-1-7 0,0 0 0,0 3 0,0 4 0,0 5 0,0-2 0,0-4 0,0-4 0,0-4 0,0 0 0,0 0 0,0 1 0,0 2 0,0 2 0,0 3 0,0 2 0,0 4 0,0 2 0,0-2 0,0-1 0,0-3 0,0 0 0,0 2 0,0-1 0,0 2 0,0 0 0,0 0 0,0 1 0,0-3 0,0-4 0,0-4 0,0-3 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0-1 0,0-1 0,0-1 0,0 0 0,0 2 0,0 1 0,0 0 0,0 0 0,0 3 0,0 4 0,0 4 0,0 6 0,0 3 0,0 2 0,0 1 0,0-2 0,0-1 0,0 2 0,2-4 0,1-2 0,2-8 0,3-5 0,-1-1 0,0-2 0,1 0 0,-2-1 0,2-1 0,-1-4 0,1-2 0,1-1 0,0-1 0,0 0 0,0 0 0,1-2 0,1-1 0,-2 0 0,0 0 0,0 0 0,0 1 0,-1-2 0,1-1 0,0-2 0,0 0 0,0 0 0,0-2 0,-1 2 0,1-1 0,2-1 0,-1-1 0,3-2 0,2 0 0,4 0 0,13 0 0,17 0 0,18 0 0,16 0 0,3 0 0,-8 0 0,-19 2 0,-16 1 0,-19 2 0,-12 0 0,-7 1 0,-4 0 0,-1 0 0,0 1 0,0 0 0,0-1 0,0-2 0,0-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2316">38843 12724 24575,'13'0'0,"5"2"0,5 3 0,2 1 0,-2 2 0,-1 0 0,1 0 0,-5-1 0,-3-1 0,-4-1 0,-3 0 0,1 1 0,2 2 0,1 0 0,0 2 0,-1-2 0,-2-2 0,3-1 0,-1 0 0,1 1 0,1 3 0,0-1 0,-2 2 0,-5-1 0,-3 0 0,-3 0 0,0 0 0,0 1 0,0 0 0,0 4 0,0 0 0,-2 0 0,-9 0 0,-7 0 0,-11 2 0,-6 1 0,0 0 0,1-6 0,9-3 0,7-2 0,6 0 0,3 1 0,0 0 0,1 2 0,-2-1 0,2 0 0,3-2 0,2-4 0,3-3 0,0-4 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink14.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-18T14:17:23.833"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1 24575,'37'0'0,"32"0"0,-15 0 0,5 0 0,7 0 0,4 0 0,13 0 0,5 0 0,-19 0 0,4 0 0,2 0-899,9 1 1,3 1 0,3 0 898,-11 0 0,2 0 0,1 1 0,1 0-366,4 2 1,1 0-1,1 0 1,-1 2 365,2 0 0,1 0 0,-1 2 0,1-1 0,-2 1 0,0 0 0,0 0 0,-2 1 0,-5-1 0,-1 1 0,-1 0 0,-1 0 3,-3 0 0,-1 1 0,-1-1 0,-1 1-3,17 4 0,-3-1 0,1 1 0,-2 0 0,-1 1 0,1 0 0,2-1 0,0 1 0,-1-1 0,-1 0 0,0-1 0,0-1 0,1 1 0,0-1 0,1 0 0,-1-1 0,-1-1 0,1 0 0,-2 0 0,0 0 0,1-1 0,0 1 0,0 0 0,2 0 0,2 0 0,2 0 0,0 0 0,3 1 0,1 1 0,1-1 0,-21-2 0,1 0 0,0-1 0,1 1-328,3 0 0,1 0 0,0 0 0,0 0 328,1 0 0,1 0 0,-1 0 0,-1 0 0,-4-1 0,-1 1 0,-2 0 0,0 0 34,18 3 0,-2 1 1,-2 0-35,-7-1 0,-2 0 0,-4 0 792,15 4 0,-6-3-792,-17-2 0,-3-3 0,-11-4 0,-2-3 0,26-2 480,-20 0 1,5 0-481,20 0 0,7 0 0,-16 0 0,4 0 0,3 0-4,-9 0 1,4 0-1,1 0 1,1 0 3,6 0 0,1 0 0,0 0 0,2 0 0,2 0 0,2 0 0,0 0 0,0 0-251,3 0 0,0 0 0,1 0 0,1 0 251,-16 0 0,1 0 0,0 0 0,1 0 0,1 0 0,4 0 0,1 0 0,1 0 0,2 0 0,1 0-542,-5 0 0,1 0 1,2 0-1,1 0 0,1 0 1,-1 0 541,4 0 0,1 0 0,1 0 0,-1 0 0,2 0 0,0 0 0,-11 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,1 0 0,0 1 0,0 1 0,1 0 0,0 0 0,0 0 0,0 1 0,-1 1 0,-1 0 0,11 1 0,-1 0 0,-1 1 0,0 1 0,0 1 0,0 1 0,-2 0 0,1 1 0,-1 1 0,0 0 0,-1 1 0,-2 1-312,-5 0 1,-1 1 0,0 1 0,-2 0 0,0 1 0,-2-1 311,8 3 0,0 0 0,-3 0 0,-1 0 0,-1 1 2,10 3 0,-2 1 0,-2 1 0,-2-1-2,-9-1 0,-1 1 0,-2-1 0,-1 0 0,14 5 0,-3 1 0,-4-3 482,-15-3 0,-3-1 0,0-3-482,23 2 0,4-5 0,-7-11 0,6-4 0,4-1 237,-17-1 1,2-2 0,3 0 0,5 0-238,-11 1 0,3-1 0,4 0 0,1-1 0,2 1 0,0 0-259,9-1 1,2-1-1,1 1 1,2-1 0,1 1-1,1 0 259,-8 1 0,2 1 0,1-1 0,1 1 0,1 0 0,1 0 0,0-1-300,-6 2 1,1-1 0,2 0-1,0 0 1,0 1 0,0-1-1,-1 1 1,0 0 299,-3 1 0,-1-1 0,0 1 0,0 0 0,0 0 0,0 1 0,-1-1 0,-1 0 0,-1 1 0,0-1 0,-1 1 0,1-1 0,-2 1 0,0 0 0,-1 0 0,-1 1-257,3 0 1,-2 1-1,0-1 1,-1 1-1,0 1 1,-2 0-1,1 1 257,9 2 0,0 0 0,-1 1 0,-1 1 0,-1 1 0,-2 0 42,10 3 0,-2 1 0,-1 0 0,-3 2 0,-2 1-42,9 2 0,-2 3 0,-3 0 0,-4 0 533,-12-3 1,-3 1 0,-2-1-1,-3 0-533,7 2 0,-4-1 0,-3-1 0,19 5 0,-5-1 1835,-14-5 0,-2-3-1835,2-4 0,4-4 0,18-1 0,5-4 668,-26 0 1,2-2-1,5 1-668,-1 1 0,5 1 0,3 0 0,2 0-111,-8 1 1,1 1 0,2 0 0,2 0 0,0 1 110,7 0 0,1 1 0,1 1 0,1 0 0,-1 0 0,5 2 0,1 0 0,1 1 0,-2 1 0,-3 0 0,-10-1 0,-1 1 0,-1 1 0,-2 0 0,-2 0-116,8 4 1,-1 0-1,-3 0 1,-1 2 115,-8 0 0,-1 1 0,-2 1 0,-1 0 0,16 6 0,-2 1 0,-2 0-151,-3-1 0,-2 1 0,-1 1 151,-5 0 0,-2 0 0,-1 0 0,-6-1 0,0-1 0,-2 1 537,25 12 1,-1 0-538,-7-1 0,-3-1 1334,-11-6 0,-2 0-1334,-8-2 0,-3 0 687,-3-3 0,-1 0-687,-1 0 0,0 1 305,2 3 1,0 0-306,-3-1 0,-2 0 0,30 21 0,-18-9 0,-19-13 0,-13-7 0,-9-6 0,-8 12 0,-5 35 0,-1 24 0,-2-24 0,0 5 0,0 11 0,-2 3 0,0 1 0,0 2 0,0 4 0,0-2 0,2-10 0,1-3 0,-1-11 0,2-3 0,0 41 0,0-15 0,0-15 0,0-13 0,0-13 0,0-9 0,0-3 0,0 1 0,0 0 0,0 1 0,0 2 0,1 0 0,2 3 0,4-2 0,3 6 0,2 7 0,2 7 0,1 4 0,1-3 0,0-4 0,-2-3 0,-4-2 0,-1 0 0,-1-3 0,1 0 0,2-1 0,-1 2 0,-1 2 0,-1-1 0,0-3 0,-1-6 0,-1-9 0,-1-4 0,1-4 0,1 2 0,0 1 0,1 4 0,2 3 0,0 1 0,-1 0 0,-1-5 0,0-3 0,0 1 0,6 3 0,0 3 0,-1 1 0,-2-4 0,-3-4 0,3-3 0,2 2 0,0 1 0,1 1 0,-2 0 0,1-3 0,-1 0 0,0-1 0,-1 0 0,1 0 0,2 1 0,0-3 0,-1 0 0,-2-1 0,-1-2 0,-1 1 0,2-1 0,-1-1 0,2 1 0,0-2 0,0 0 0,0-1 0,1 2 0,3 3 0,3 2 0,4-1 0,5 0 0,6 0 0,3 1 0,1 2 0,-4-2 0,-3-4 0,-3-5 0,-3-4 0,-3 0 0,-6-1 0,-3 0 0,-3-2 0,-1 0 0,-1-1 0,1-1 0,-2 0 0,1 0 0,-3 2 0,1 0 0,-1 1 0,-1-1 0,1-2 0,0 2 0,3-2 0,0 3 0,0 0 0,0 3 0,0 1 0,2 0 0,2 2 0,0 1 0,1 1 0,-2-1 0,-2 1 0,-1 0 0,0-1 0,0 0 0,0-1 0,-1 0 0,0-1 0,-1 0 0,-2-3 0,-2 0 0,0 1 0,2 0 0,1 1 0,3 0 0,-2-1 0,0 0 0,-1-1 0,-2-1 0,-1-3 0,-2-2 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2175">30547 6952 24575,'0'8'0,"0"1"0,0-2 0,0 5 0,0 1 0,0 1 0,0 1 0,2-1 0,3 1 0,2 0 0,0 1 0,-1-2 0,-4 0 0,1 0 0,0 0 0,1 0 0,2 0 0,-1-1 0,0-1 0,-1-1 0,-2 0 0,-1-2 0,1-1 0,1-2 0,0 2 0,2 1 0,1 5 0,3 1 0,2 1 0,0 1 0,1-3 0,-2-1 0,-2-2 0,-2-2 0,-2 1 0,-2-3 0,2 0 0,-2 0 0,1-1 0,-1 1 0,-2-2 0,-2-1 0,-6-2 0,-3-1 0,-3-1 0,-2 0 0,0 0 0,-3 0 0,-2 0 0,-1 0 0,3 0 0,1 0 0,4 0 0,6 0 0,3 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink15.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-18T14:17:39.439"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 46 24575,'24'0'0,"19"0"0,35 0 0,14 0 0,-39 1 0,1-2 0,-2 0 0,-2 0 0,38-3 0,-9 0 0,-13 0 0,-3 1 0,11 0 0,21-1 0,-42 3 0,0 0 0,0 1 0,0 0 0,43 0 0,-22 0 0,-15 0 0,-4 0 0,7 0 0,27 0 0,-29 0 0,4 0 0,10 0 0,3 0 0,6 0 0,-1 0 0,-7 0 0,-4 0 0,-12 0 0,-6 0 0,18 1 0,-34 1 0,-13 1 0,16 0 0,42-1 0,-27-2 0,5 0 0,12-1 0,5-2 0,6 1 0,1 0 0,-6-2 0,-1 0 0,-1 0 0,-4 0 0,-14 2 0,-5 0 0,23-1 0,-4 3 0,16 0 0,-29 0 0,3 0 0,11 0 0,3 0 0,3 0 0,0 0 0,-5 0 0,-2 0 0,-9 0 0,-2 0 0,-10 0 0,-2 0 0,33 0 0,-7 3 0,1 6 0,11 5 0,9 3 0,-46-8 0,0-1 0,47 7 0,-13-1 0,-13-1 0,-16-2 0,-10-2 0,-5-1 0,5-1 0,9 3 0,16 1 0,17 2 0,-36-4 0,2 0 0,6 1 0,1-1 0,2 1 0,1 0 0,-1-2 0,0-1 0,-1-1 0,-1 0 0,-2 0 0,-1-1 0,-2 0 0,0-1 0,-4 0 0,-1-1 0,38 3 0,-17-2 0,-15 2 0,-15 0 0,-9-3 0,-8-1 0,0-2 0,31 0 0,28 0 0,12 0 0,-42 1 0,-1-1 0,33 5 0,-16 1 0,-7 4 0,-15-1 0,1-1 0,18 1 0,25 2 0,-36-3 0,2 0 0,4 1 0,-1 0 0,-4 0 0,-2-1 0,36 9 0,-22-4 0,-16 0 0,-10-1 0,-1 0 0,-3 0 0,1-3 0,-2 1 0,-1 0 0,-1 0 0,-1 4 0,0 1 0,-1-2 0,-3 0 0,-4-3 0,-1-1 0,-4-1 0,1 0 0,-3 0 0,0 1 0,-2 1 0,-3 1 0,1-2 0,-1-1 0,-2-1 0,4 0 0,-1 2 0,1 0 0,2 0 0,3 3 0,2 1 0,5 1 0,3 4 0,2 0 0,2 0 0,-1 2 0,0-1 0,-3-2 0,0 0 0,0 0 0,0 1 0,1 2 0,-2-2 0,-2-1 0,0 2 0,0-2 0,-3 1 0,-1-1 0,-2-2 0,-1 2 0,1 1 0,1-1 0,2 3 0,0-1 0,0 1 0,-3 2 0,0 1 0,-3-1 0,-3 3 0,-3 3 0,1 5 0,-1 7 0,0 6 0,-2 8 0,-2 7 0,-3 0 0,-1-2 0,-4-3 0,-1 3 0,0 12 0,0 7 0,0 6 0,0-2 0,0-12 0,0-9 0,0-4 0,0 0 0,0 12 0,0 5 0,0 0 0,0-9 0,0-13 0,0-9 0,3-3 0,0-1 0,0-2 0,0 0 0,-1-3 0,0-1 0,1 1 0,2-1 0,-1-1 0,-1 0 0,2-3 0,-2-4 0,0 1 0,-1-4 0,-2 0 0,0 0 0,1 0 0,2 0 0,0 1 0,1-1 0,0 0 0,1 0 0,0 0 0,2-1 0,-2-1 0,0-4 0,3 0 0,-3 0 0,5 0 0,1 1 0,0-1 0,5 3 0,0-2 0,0-1 0,0-5 0,-1-3 0,-1 0 0,1-3 0,-2 0 0,0-4 0,0-1 0,1 0 0,1 0 0,-1 0 0,1 0 0,-2 3 0,-1 0 0,0 0 0,-2-1 0,1 1 0,0 0 0,1 0 0,2-1 0,2-1 0,0 2 0,3 0 0,3 2 0,5 1 0,5-1 0,-1 1 0,-1-4 0,-6 2 0,-5-1 0,-2 0 0,-1-1 0,0-2 0,0 0 0,0 1 0,-1 2 0,2 2 0,1 3 0,3 0 0,0 1 0,1-1 0,-2-2 0,-4 0 0,-3-1 0,-2-2 0,0 2 0,-1-2 0,0 1 0,-2 1 0,0-2 0,-2 1 0,3-1 0,2 1 0,3 2 0,2 0 0,1 3 0,-1 1 0,0 2 0,-3-2 0,-1-1 0,-3-2 0,-1-2 0,-2 0 0,1-1 0,2 1 0,-1 2 0,0 1 0,-1 0 0,-1-3 0,-2-2 0,-2-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2483">10963 3628 24575,'11'7'0,"2"3"0,1 3 0,2 3 0,1 2 0,-3-1 0,-1-3 0,-6-4 0,-3-1 0,-2-1 0,-1 1 0,-1-1 0,3 0 0,0 1 0,1 3 0,1-1 0,-2 0 0,1-3 0,-1 0 0,0 1 0,-1 2 0,-1 1 0,-1 1 0,0 2 0,0-2 0,0-2 0,0-1 0,0-3 0,0 0 0,0 1 0,0-1 0,0 2 0,0 0 0,-2 1 0,-3 3 0,-3 1 0,-5 0 0,-1-1 0,0-2 0,1 3 0,0 0 0,-1-1 0,-2 0 0,1-4 0,5-2 0,2-2 0,3-2 0,3-1 0,0-2 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1114,7 +1473,7 @@
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1138,70 +1497,12 @@
       <inkml:brushProperty name="color" value="#FF0000"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 5210 24575,'55'0'0,"32"-3"0,-21 1 0,5-2 0,6 0 0,3-1 0,16 0 0,5 0-770,-25 1 1,3 1 0,2 0 769,9-1 0,1 0 0,4 1-455,-11 0 1,2 0-1,2 0 1,1 0 454,3-1 0,2 1 0,1 0 0,0 1 0,-14 0 0,0 0 0,1 0 0,1 1 0,1 0-324,8 0 0,1 0 0,2 0 1,0 1-1,-1-1 324,0 1 0,0 0 0,1 0 0,-1 0 0,0 0 0,0 1 0,1-1 0,-1 0 0,0 1 0,0 0 0,-3 1 0,1 0 0,-1 0 0,0 1 0,-2 0-342,-4 0 1,-2 0 0,0 0 0,0 1-1,0 0 342,-2 0 0,1 0 0,-1 0 0,-1 0 0,0 0 0,16 1 0,-2-1 0,0 0 0,0 0-107,-4-2 0,0 0 0,-1 0 0,-1 0 107,-3-1 0,0 0 0,0-1 0,-1 1 0,-1-1 0,-1 0 0,0 0 0,-1 0 0,-1 0 0,-1 0 0,-1 0 0,-1 0 254,20 0 1,-2 0 0,0 0-255,-6 0 0,0 0 0,-2 0 0,-3 0 0,0 0 0,-1 0 0,-2-1 0,-1 0 0,1-1 0,-1 0 0,0 0 0,0-1 0,-2-1 0,-1-1 0,0 0 672,-2-1 1,-2-1 0,0-1-673,-4 1 0,0-1 0,-2 0 0,30-4 0,-2-1 0,-4 0 0,-2 1 0,-4-1 0,0 1 1007,-4 0 1,-1 0-1008,-4 0 0,-1 0 849,-4 2 1,-1-1-850,-4 2 0,-2 1 490,-5 0 1,-1 0-491,-5 1 0,-1 1 403,42-6-403,-5 1 0,-6 0 0,-1-1 0,-4 0 0,-6 0 0,-3 2 0,-5-2 0,-1 0 0,0-1 0,-1 0 0,-9 3 0,-3-1 0,1 0 0,5-1 0,7 0 0,0 2 0,-5 1 0,-5 0 0,-1-1 0,-2-1 0,-2-1 0,-3-1 0,-3 0 0,-7-1 0,-1-2 0,-2 0 0,2-1 0,4-2 0,2-2 0,1-3 0,1 0 0,1-1 0,0-2 0,-2 0 0,-2-2 0,-4-1 0,-2-7 0,-3-9 0,0-11 0,-3-6 0,-3-8 0,-2-4 0,-2-3 0,0-3 0,2-4 0,0-1 0,2-2 0,-3 4 0,-6 8 0,-5 3 0,-4 1 0,-1-7 0,3-9 0,0-1 0,-1 3 0,0 6 0,0 5 0,0 0 0,2 1 0,-1-1 0,-2-2 0,-1-5 0,-2-7 0,2-8 0,-3 47 0,0 0 0,3-48 0,2 1 0,1 1 0,-3 45 0,2-1 0,0-8 0,2-2 0,2-5 0,1-1 0,3-3 0,2-1 0,2 1 0,1 0 0,1 4 0,0 1 0,-2 5 0,0 0 0,-2 5 0,-2 1 0,-1 6 0,-2 1 0,8-33 0,-6 17 0,-2 15 0,-3 12 0,-1 11 0,-2 7 0,-1 6 0,-2 5 0,0 1 0,2 1 0,1-1 0,3-1 0,0 0 0,1-1 0,1-2 0,1 1 0,3-1 0,6-2 0,3-1 0,3-2 0,2 1 0,3 0 0,6 0 0,4-1 0,1 1 0,-3 1 0,-7 3 0,-7 4 0,-7 2 0,-3 3 0,-2 0 0,-1 0 0,-1 0 0,-1 0 0,2 0 0,1 0 0,1 0 0,1 1 0,5 0 0,13-2 0,18 1 0,17-2 0,3 1 0,-4 0 0,-11 1 0,-11 2 0,-21 0 0,-8 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2322">13717 3 24575,'22'0'0,"5"-1"0,5 0 0,-1 1 0,-4 3 0,-6 2 0,-1 2 0,-1 0 0,-1-1 0,0 0 0,-3-1 0,-1-2 0,-3 0 0,-2 0 0,-1 1 0,1 2 0,3 0 0,2 1 0,1 0 0,-3 0 0,-4-1 0,-3-2 0,-1-2 0,-1-1 0,1 0 0,-1 1 0,-1 1 0,0 3 0,-8 4 0,-9 2 0,-13 5 0,-13 3 0,-3 1 0,0 1 0,8-3 0,5-1 0,0 5 0,-4 2 0,-1 1 0,4-3 0,8-7 0,9-6 0,9-5 0,3-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 5352 24575,'55'0'0,"32"-3"0,-21 1 0,6-2 0,5 0 0,3-2 0,16 1 0,5 0-770,-25 1 1,4 1 0,1 0 769,9-1 0,1 0 0,4 1-455,-11 0 1,3-1-1,1 1 1,1 0 454,3-1 0,2 1 0,2 0 0,-1 1 0,-14 0 0,0 0 0,1 0 0,1 1 0,2 0-324,7 0 0,1 0 0,2 0 1,0 1-1,-1-1 324,1 1 0,-1 0 0,1 0 0,-1 0 0,0 0 0,1 1 0,0-1 0,-1 0 0,0 1 0,0 0 0,-2 1 0,0 0 0,-1 0 0,0 1 0,-2 0-342,-4 0 1,-1 0 0,-1 0 0,0 1-1,0 1 342,-2-1 0,1 0 0,0 0 0,-2 0 0,0 0 0,16 1 0,-2-1 0,0 0 0,1 1-107,-5-3 0,0 0 0,-1 0 0,-1 0 107,-3-1 0,1 0 0,-1-1 0,-1 1 0,-1-1 0,-1 0 0,0 0 0,0 0 0,-2 0 0,-1 0 0,-1 0 0,-1 0 254,20 0 1,-1 0 0,-1 0-255,-6 0 0,0 0 0,-2 0 0,-2 0 0,-1 0 0,-1 0 0,-2-1 0,-1 0 0,1-1 0,-1 0 0,1 0 0,-1-1 0,-2-2 0,-1 0 0,0 0 672,-2-1 1,-1-1 0,-1-1-673,-4 0 0,0 0 0,-2 0 0,30-4 0,-1-2 0,-5 1 0,-2 1 0,-4-2 0,0 2 1007,-4 0 1,0-1-1008,-5 1 0,-1 0 849,-4 1 1,-1 0-850,-4 2 0,-2 1 490,-5-1 1,0 1-491,-6 1 0,-1 1 403,42-7-403,-5 2 0,-6 0 0,-1-1 0,-3-1 0,-7 1 0,-3 2 0,-5-3 0,-1 1 0,0-1 0,-1-1 0,-8 4 0,-4-1 0,1-1 0,5 0 0,7 0 0,0 1 0,-5 2 0,-5 0 0,-1-1 0,-1-2 0,-3 0 0,-3-1 0,-3-1 0,-7 0 0,-1-2 0,-2-1 0,2 0 0,4-3 0,2-1 0,1-4 0,1 0 0,1 0 0,1-3 0,-3 0 0,-2-2 0,-4-1 0,-2-7 0,-3-9 0,0-11 0,-3-7 0,-3-8 0,-2-4 0,-2-3 0,0-3 0,2-5 0,0 0 0,2-2 0,-3 3 0,-6 9 0,-5 3 0,-4 1 0,-1-7 0,3-9 0,0-2 0,-1 4 0,0 6 0,0 5 0,1 0 0,1 1 0,-1-1 0,-2-3 0,-1-4 0,-2-7 0,2-9 0,-3 49 0,0-1 0,3-48 0,2 0 0,1 2 0,-3 45 0,2 0 0,0-9 0,2-2 0,2-4 0,1-2 0,3-3 0,2-1 0,2 1 0,1 0 0,1 4 0,0 1 0,-2 6 0,0-1 0,-2 5 0,-2 2 0,-1 6 0,-2 0 0,8-33 0,-6 17 0,-2 16 0,-3 12 0,-1 11 0,-2 8 0,-1 5 0,-2 6 0,0 1 0,2 1 0,1-1 0,3-2 0,0 1 0,1-1 0,1-2 0,1 0 0,3 0 0,7-2 0,2-2 0,3-1 0,2 1 0,3-1 0,6 1 0,4-2 0,1 2 0,-3 1 0,-7 2 0,-7 5 0,-7 2 0,-3 3 0,-2 0 0,-1 0 0,-1 0 0,-1 0 0,2 0 0,1 0 0,1-1 0,1 2 0,5 0 0,14-2 0,17 1 0,17-2 0,3 1 0,-4 0 0,-11 1 0,-11 2 0,-21 0 0,-8 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2322">13744 3 24575,'22'0'0,"5"-1"0,5 0 0,-1 1 0,-3 3 0,-7 2 0,-1 2 0,-1 1 0,-1-2 0,0 0 0,-3-1 0,-1-2 0,-3 0 0,-2 0 0,-1 1 0,1 3 0,3-1 0,2 1 0,1 0 0,-3 0 0,-4-1 0,-3-1 0,-1-3 0,-1-1 0,1 0 0,-1 1 0,-1 1 0,0 3 0,-8 4 0,-9 3 0,-13 4 0,-13 4 0,-3 0 0,0 2 0,8-4 0,5 0 0,-1 4 0,-3 3 0,-1 1 0,4-4 0,8-6 0,9-7 0,9-5 0,3-4 0</inkml:trace>
 </inkml:ink>
 </file>
 
-<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:53:01.560"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FF0000"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">407 1 24575,'-27'1'0,"0"3"0,-1 2 0,4 0 0,3 0 0,4-1 0,1-1 0,0 1 0,0-1 0,-1 0 0,-2 0 0,-3 1 0,-3 0 0,-1-1 0,1-1 0,3-2 0,7-1 0,4 0 0,4 0 0,3 2 0,1 3 0,2 5 0,-1 4 0,0 5 0,0 2 0,0 1 0,2 2 0,0-2 0,0 0 0,0-2 0,0 1 0,0-1 0,0-1 0,0 1 0,0-2 0,0-1 0,0 1 0,0 0 0,0 2 0,0 2 0,0 0 0,0 3 0,0 1 0,0 3 0,0 1 0,0 3 0,0 3 0,0 2 0,0 1 0,0 2 0,0-4 0,0-2 0,0 2 0,0 8 0,0 8 0,0 6 0,0-4 0,0-7 0,0-7 0,0-8 0,0-6 0,0-2 0,0-4 0,0 3 0,0 0 0,0 4 0,0 3 0,0 2 0,0 0 0,0 0 0,0-3 0,0-2 0,0-5 0,0-4 0,1-1 0,1-1 0,0 1 0,0 0 0,-1-1 0,1-1 0,0-1 0,0 0 0,-2 1 0,0 1 0,0 3 0,1 2 0,0 1 0,1-1 0,0 0 0,1 1 0,-1 5 0,0 3 0,0 0 0,0-4 0,0-5 0,0-5 0,0-3 0,-2-2 0,0-2 0,0-3 0,0 0 0,0-1 0,0 1 0,0 8 0,-2 14 0,-2 10 0,-5 13 0,-2 8 0,1 5 0,2 12 0,5 1 0,3 3 0,0 1 0,0-1 0,0-2 0,2-2 0,1-5 0,4-5 0,0-8 0,2-6 0,0-2 0,0 1 0,1 5 0,-2 7 0,0 3 0,0 1 0,0-6 0,-1-10 0,-2-12 0,1-7 0,-1-4 0,-1 0 0,2 3 0,-1 2 0,1-2 0,-1-4 0,1-5 0,-1-5 0,2-2 0,0 0 0,4 2 0,3 2 0,0 2 0,2 2 0,0-3 0,0-1 0,-1-3 0,3-1 0,4 0 0,3 0 0,4 0 0,-2-3 0,-1-1 0,-2-3 0,-3-2 0,0-1 0,-1 0 0,4-2 0,7-2 0,9 0 0,8-2 0,2 0 0,2 0 0,-2 0 0,2 0 0,5 0 0,4 0 0,5 2 0,3 1 0,-2 0 0,-2-1 0,-4-2 0,-3 1 0,-4 1 0,-1 1 0,0-1 0,4-1 0,8 1 0,8 2 0,6 0 0,7 3 0,5-2 0,3 1 0,-1 1 0,-4 1 0,-10-1 0,-10 0 0,-5-3 0,-7 1 0,-1-1 0,2-1 0,-2 1 0,-2-2 0,-3 1 0,-8 0 0,-6 0 0,-3-1 0,-3 2 0,0-2 0,-3 2 0,7 1 0,8 3 0,4 2 0,3 1 0,-11 0 0,-9-3 0,-6 0 0,-4 1 0,-2-1 0,-1 0 0,-2 1 0,0-2 0,-1-1 0,-3-1 0,-3 0 0,-2 0 0,0-1 0,0-1 0,2 2 0,-1 0 0,0 1 0,0 0 0,1 0 0,1-1 0,1 2 0,3 0 0,1 3 0,4 2 0,5 4 0,4 3 0,0-1 0,-5 0 0,-6-6 0,-4-4 0,-5-5 0,-3-3 0,-3 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1969">3627 4498 24575,'10'7'0,"2"2"0,0 4 0,-3 0 0,-2-2 0,-3-2 0,0-2 0,2 1 0,-1-1 0,1 0 0,0 0 0,-1 1 0,0 0 0,1 3 0,1 1 0,0 1 0,0-1 0,-1-3 0,-3-3 0,0-2 0,0 1 0,1 1 0,1-1 0,-1 2 0,0-2 0,-1-1 0,-4-3 0,-11 2 0,-17 5 0,-12 3 0,-17 4 0,-18 2 0,-14 2 0,40-9 0,1-1 0,-37 5 0,25-6 0,22-5 0,21-3 0,10 0 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
-<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
-  <inkml:definitions>
-    <inkml:context xml:id="ctx0">
-      <inkml:inkSource xml:id="inkSrc0">
-        <inkml:traceFormat>
-          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
-          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
-        </inkml:traceFormat>
-        <inkml:channelProperties>
-          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
-          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
-        </inkml:channelProperties>
-      </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:53:13.355"/>
-    </inkml:context>
-    <inkml:brush xml:id="br0">
-      <inkml:brushProperty name="width" value="0.05" units="cm"/>
-      <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FF0000"/>
-    </inkml:brush>
-  </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">416 0 24575,'-16'1'0,"-8"5"0,-9 2 0,2 2 0,5 3 0,3-3 0,6 0 0,0-2 0,6-4 0,3-3 0,0-1 0,1 0 0,-1 0 0,0 0 0,1 2 0,-1 0 0,0 0 0,0-1 0,-1-1 0,2 0 0,1 0 0,0 2 0,1-1 0,1 1 0,-1 0 0,1 0 0,0 0 0,1 3 0,0 8 0,0 9 0,0 6 0,-3 3 0,-2 2 0,-3 1 0,-2 10 0,0 6 0,3-1 0,3-2 0,3-5 0,2-5 0,0-1 0,0 0 0,2 1 0,-1 0 0,-1-3 0,-1-2 0,2 0 0,0-1 0,1 1 0,0-2 0,0-2 0,0-1 0,0-4 0,0-1 0,0 0 0,0 1 0,0 6 0,0 3 0,0 3 0,0 1 0,0-2 0,0 0 0,0 0 0,0 0 0,1 0 0,1 2 0,1 4 0,1 5 0,1 3 0,0 3 0,0 2 0,0 4 0,-2 7 0,1 8 0,0 5 0,-2 1 0,0-1 0,-2-3 0,0-3 0,0-2 0,0-5 0,0-5 0,0-5 0,0-4 0,0 2 0,0 2 0,0 2 0,0-1 0,0-2 0,0 0 0,0 3 0,0 7 0,0 3 0,0-1 0,0-7 0,0-11 0,0-6 0,0-3 0,0 4 0,0 11 0,0 10 0,0 12 0,0 2 0,0-7 0,0-10 0,0-18 0,0-9 0,0 10 0,0 2 0,0 15 0,0 14 0,2-2 0,0 5 0,1-11 0,1-14 0,-1-3 0,-1 9 0,-1 14 0,-1 10 0,0 1 0,0-10 0,0-13 0,0-12 0,0-4 0,0 1 0,0 1 0,0 3 0,0-3 0,2-1 0,2 3 0,2 6 0,4 12 0,0 9 0,0 0 0,1-10 0,-2-16 0,-1-15 0,0-11 0,-3-7 0,-2-2 0,0-2 0,1-1 0,2 0 0,3 4 0,2 2 0,2 3 0,-1 0 0,-3-1 0,-1-2 0,-2-5 0,-1-1 0,0-4 0,-3-1 0,1-1 0,0-1 0,1 0 0,2-1 0,2 0 0,2-1 0,5-1 0,8 0 0,10-1 0,14 0 0,21-4 0,24-10 0,-37 4 0,2-3 0,7-2 0,0-2 0,3-1 0,-1 0 0,-2 1 0,0-1 0,-4 1 0,-1 0 0,-4 0 0,-2 0 0,-4 2 0,-2-1 0,41-12 0,-5 5 0,1 3 0,6 2 0,-40 9 0,1 0 0,5 0 0,0-1 0,2 1 0,0 1 0,-1 0 0,0-1 0,-2 2 0,-1 1 0,-3 0 0,-2 1 0,47-3 0,-6 3 0,-7 1 0,-5 1 0,-8 2 0,-7 1 0,-7 0 0,-5 0 0,-4 0 0,-2 0 0,-3 0 0,-5 0 0,-5 0 0,-3 0 0,1 4 0,4 2 0,2 3 0,3 2 0,1-1 0,1 0 0,0 0 0,1 1 0,-1-1 0,-3 1 0,-5-1 0,-8-3 0,-7-2 0,-7-1 0,-4-1 0,-2 1 0,-2-2 0,-1-1 0,-1-1 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2396">3655 5261 24575,'10'8'0,"5"3"0,6 8 0,1 0 0,1 0 0,-4-2 0,-3-4 0,-2-1 0,-6-3 0,-4-2 0,-4-3 0,-1 0 0,-6 0 0,-5 2 0,-5 3 0,-8 3 0,-8 5 0,-7 4 0,-7 4 0,3-1 0,7-4 0,10-4 0,10-5 0,9-4 0,3-3 0,3-1 0,-2-1 0,0 1 0,0 0 0,-1-1 0,1 1 0,0-1 0,-1 0 0,3 0 0,0-2 0</inkml:trace>
-</inkml:ink>
-</file>
-
-<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
     <inkml:context xml:id="ctx0">
@@ -1230,6 +1531,89 @@
 </inkml:ink>
 </file>
 
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:55:11.305"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+      <inkml:brushProperty name="color" value="#FF0000"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 33 24575,'7'-2'0,"8"-3"0,13-2 0,4 0 0,-12 4 0,0 0 0,3 1 0,0 1 0,0 0 0,0 0 0,3 1 0,0 0 0,-2 0 0,0 0 0,-1 0 0,0 0 0,0 0 0,1 0 0,1 0 0,1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,-2 0 0,0 0 0,-1 0 0,-1 0 0,0 0 0,-1 0 0,-2 0 0,-2 0 0,12 1 0,-9 1 0,-7 2 0,-3 0 0,0-2 0,12 0 0,10-2 0,-7 0 0,1 0 0,4 0 0,2 0 0,-10 0 0,1 0 0,0 0 0,2 0 0,-1 0 0,1 0 0,-3 0 0,0 0 0,0 0 0,10 0 0,0 0 0,-1 0 0,1 2-264,-8 1 0,0 0 0,0 0 264,2 2 0,-1 0 0,2 2 0,1 0 0,0 2 0,0 0 0,-2-1 0,0 2 0,-1-1 0,-1 0 0,-2-1 0,1 0-52,9 4 0,0 0 52,-4-1 0,0 0 0,-1 1 0,0-1 0,-2 1 0,-1 0 0,0 1 0,0-1 0,1 0 0,0 1 0,1-1 0,1 0 393,-1 2 1,1-2-394,-2 0 0,0 1 54,0 0 1,-1 1-55,-1 2 0,-2 1 0,1 1 0,0 2 0,-1 1 0,1 1 0,-1 0 0,0-1 0,0-1 0,0 0 0,-2-1 0,1-1 0,-2-1 0,0 0 0,0-1 0,-2 0 0,0 1 0,-1-2 0,14 14 0,-1-3 0,-2 0 0,1-2 0,1 1 0,0 3 0,1 1 0,-3 0 0,-2 1 0,-6-3 0,-5-3 0,-3-7 0,-5-5 0,0-5 0,5-3 0,10 11 0,6 11 0,-8-6 0,0 5 0,3 7 0,0 1 0,0 2 0,1 2 0,0 0 0,0 1 0,-2-4 0,-1-1 0,-1-3 0,-1-2 0,2 1 0,-1 1 0,3 4 0,0 2 0,2 3 0,0 2 0,1 4 0,-1 1 0,1 1 0,-2 1 0,0-1 0,0 0 0,-2-3 0,1-1 0,-2-2 0,1-1 0,-2-3 0,-1-2 0,-1-3 0,-1-2 0,12 25 0,-6-10 0,-4-9 0,-4-8 0,-3-6 0,-2-4 0,0 0 0,1 3 0,0 2 0,1 0 0,-1 1 0,2-1 0,1 2 0,3 6 0,3 2 0,1 5 0,0-1 0,0-4 0,-4-2 0,-1-5 0,-5-6 0,-2-5 0,0-7 0,-1-5 0,4-1 0,3 3 0,2 4 0,1 1 0,-4-2 0,-1-2 0,-2-4 0,-1 0 0,-1-2 0,0 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,2 0 0,-2 0 0,-1 0 0,-1 0 0,-2 0 0,0 0 0,-2 0 0,1 0 0,1 0 0,1 0 0,2 0 0,1 0 0,1 0 0,1 0 0,-1 0 0,0 0 0,-1 0 0,-1 0 0,0 0 0,0 0 0,0 0 0,-1 0 0,-1 0 0,-1 0 0,0 0 0,1 1 0,2 0 0,2 2 0,1 0 0,1 2 0,-2-3 0,-1 1 0,0-1 0,-1 2 0,2 0 0,-1-2 0,1 2 0,-2-1 0,-1 0 0,-1 1 0,-2-2 0,-1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2396">4298 2777 24575,'3'0'0,"2"0"0,2 0 0,-1 0 0,1 2 0,-2 1 0,-1 3 0,0 0 0,1 1 0,-1 1 0,2 3 0,0 0 0,0-2 0,-2-2 0,-1-3 0,-1 0 0,-1-2 0,1-1 0,1 1 0,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,0 1 0,0 1 0,1 0 0,0 3 0,1-4 0,-1 0 0,-2-2 0,0-1 0,-2 1 0,0 1 0,-1 2 0,-2 3 0,-3 4 0,-3 2 0,-3 1 0,-4 5 0,0 3 0,-1 2 0,1 1 0,2-2 0,2-5 0,3-1 0,3-3 0,2-2 0,1-4 0,2-5 0,0-3 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-17T13:14:10.128"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'16'0'0,"46"0"0,-12 0 0,5 0-1915,20 0 1,6 0 1914,7 0 0,2 0-1021,4 4 0,1 2 1021,-27-3 0,0 1 0,0 0 0,0 2 0,1 1 0,1 0 0,5 1 0,1-1 0,-1-1 0,-5-2 0,-2 0 0,1 0 0,-1 1 0,0 2 0,-1-1 15,24-1 1,-4 0-16,-15 4 0,-3 1 0,0-1 0,-2 0 0,-3 1 0,-1-2-326,-4-3 1,0 0 325,5 3 0,-3 0 0,29 1 1525,-25 4-1525,-16-1 2509,-23-7-2509,-5 2 1547,-5-4-1547,-3 1 910,-3 2-910,3-2 0,1 2 0,-1 1 0,6 1 0,2 3 0,16 7 0,15 13 0,6 6 0,6 0 0,-8-3 0,-5-8 0,1 0 0,-12-4 0,9 3 0,-20-7 0,9 4 0,-1-1 0,-7-3 0,23 16 0,-12-9 0,4 2 0,-8-7 0,-10-6 0,-6-1 0,-2 1 0,-9-4 0,3 1 0,-3-2 0,0-5 0,0-1 0,-3 0 0,-1 1 0,1 2 0,-1 1 0,4-3 0,0 2 0,1-3 0,7 5 0,-6-1 0,1 0 0,-7 0 0,-3-3 0,1-1 0,2 0 0,1 0 0,0 1 0,2 2 0,2-2 0,2-1 0,0 0 0,0 0 0,-2 1 0,-2 0 0,-2-2 0,0 1 0,2 1 0,2 0 0,-1-1 0,0 0 0,-4 0 0,1 1 0,2 2 0,2-2 0,2 2 0,0 1 0,-2-3 0,-2 2 0,-2-3 0,0 1 0,2 2 0,2-2 0,2 2 0,0 1 0,-3-3 0,0 1 0,-3-1 0,-1 0 0,10 3 0,13 5 0,22 9 0,14 0 0,-10-6 0,-13-5 0,-22-6 0,-7 0 0,-3-1 0,0-1 0,5 3 0,25 6 0,37 19 0,-27-12 0,4 1-793,14 4 1,3 1 792,-1-1 0,1-1 0,0-2 0,-1-2 0,-5-4 0,-3 0 0,29 10 0,-35-12 0,-28-3 0,-19-2 0,-2-4 0,3 0 1585,0 0-1585,9 2 0,2 3 0,5 1 0,-5-4 0,-8 1 0,-7-2 0,-6 0 0,0-1 0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-17T13:14:14.215"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.05" units="cm"/>
+      <inkml:brushProperty name="height" value="0.05" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1 24575,'10'10'0,"11"12"0,7 6 0,11 12 0,9 3 0,4 1 0,-1 0 0,-14-13 0,-1 6 0,2 1 0,13 15 0,10 10 0,1-7 0,-16-15 0,-8-6 0,-19-17 0,3 3 0,-8-6 0,3-3 0,-8 1 0,-2-5 0,3 2 0,-3 0 0,3 0 0,-1 4 0,2 0 0,2-1 0,0 1 0,1 0 0,10 11 0,14 6 0,-2 0 0,6 0 0,0 1 0,-1-7 0,26 13 0,-1-2 0,11 4-643,10 9 643,-7-8 0,8 0 0,-12-10 0,1 1 0,0-1 0,-12-1 0,-2-8 0,-23-4 0,9 0 0,-8-5 0,-1 5 643,20 2-643,-5 2 0,32 11-847,4 0 847,-41-19 0,2-1 0,-1 0 0,-1-1 0,41 12 0,-14-7 0,-26 3 0,-13-9 0,-11-6 0,-1 3 0,-5-4 847,-2 1-847,-6 1 0,7-1 0,12 5 0,8 7 0,12-2 0,-1 4 0,-10-8 0,-4-4 0,1 3 0,-8-5 0,1 5 0,-5 3 0,-6-4 0,1 3 0,15-1 0,10 1 0,19 2 0,12 2 0,0 0 0,-1 0 0,1-1 0,0-6 0,-23 2 0,-5-6 0,-28 0 0,-2-1 0,-6-4 0,-2 3 0,-2 1 0,1 0 0,6-1 0,-1-3 0,4 0 0,-5 0 0,5 4 0,1 1 0,-2 0 0,-2-1 0,-10-4 0,1 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,2 0 0,8 0 0,3 4 0,7 1 0,-6 0 0,-2-1 0,-6-4 0,-2 0 0,1 0 0,-4 0 0,1 3 0,7 2 0,1-1 0,4 0 0,-2-1 0,-8 1 0,-2 0 0,-2-1 0,0-3 0,-1 0 0,4 0 0,6 0 0,-1 0 0,10 0 0,-10 0 0,4 0 0,-6 0 0,-2 0 0,-2 0 0,-2 0 0,3 0 0,6 0 0,5 0 0,-1 3 0,0 1 0,-10 0 0,0-1 0,-4-3 0,1 0 0,3 0 0,0 0 0,9 0 0,2 0 0,6 0 0,-1 0 0,1 0 0,-1 0 0,-8 0 0,-2 0 0,-10 0 0,1 0 0,3 0 0,0 0 0,9 0 0,13 0 0,-3 0 0,3 0 0,-13 0 0,-8 0 0,-2 0 0,-2 0 0,-3 3 0,-1 0 0,0 1 0,3-1 0,5-3 0,2 0 0,6 4 0,-4 0 0,1 4 0,-3-1 0,-3-3 0,1-1 0,-2-3 0,-2 0 0,0 0 0,-1 0 0,4 3 0,6 2 0,5-1 0,17 0 0,-9-4 0,3 3 0,-13 1 0,-9 3 0,-3-1 0,-1-2 0,1-1 0,3-3 0,3 0 0,1 0 0,-1 0 0,-3 0 0,-3 0 0,-4 0 0</inkml:trace>
+</inkml:ink>
+</file>
+
 <file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
 <inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
   <inkml:definitions>
@@ -1246,16 +1630,15 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:54:12.315"/>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-17T13:14:34.279"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FF0000"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 8 24575,'17'0'0,"5"0"0,2 0 0,-2 0 0,-1 0 0,-2 0 0,2 0 0,7 0 0,3 0 0,2 0 0,1 0 0,0 0 0,0 0 0,0 0 0,0 0 0,0 0 0,-4 0 0,-4 0 0,-5 0 0,-5 0 0,-4 0 0,-3 0 0,-2 0 0,2 0 0,6 0 0,7-1 0,6-2 0,7 1 0,4 0 0,5 2 0,6 0 0,3 0 0,3 0 0,3 0 0,0 0 0,0 0 0,-2 2 0,-9 2 0,-3 0 0,-5 3 0,0 1 0,5 2 0,3 3 0,3 3 0,-1 1 0,-2 1 0,-3 0 0,-3-1 0,-1 1 0,-1 1 0,4 4 0,1 4 0,2 2 0,-2 1 0,-1 1 0,-2-3 0,-3-1 0,-3-4 0,-5-2 0,-1 0 0,-1-3 0,1 1 0,-4-3 0,-2-1 0,-6-3 0,-4-3 0,-6-3 0,-3-3 0,1 0 0,2 3 0,8 3 0,7 5 0,8 4 0,7 4 0,4 2 0,1 4 0,-1-1 0,-2-2 0,-1 0 0,-1-3 0,-1-2 0,-3-1 0,-4-2 0,-3 1 0,-2 1 0,-1-1 0,-2 0 0,-2-1 0,-2 0 0,-2 4 0,0 4 0,0 2 0,3 6 0,0 2 0,1 4 0,0 4 0,-1 0 0,1 2 0,2 1 0,-1-3 0,-1-2 0,0-1 0,-4-3 0,-1 0 0,-2 0 0,0-3 0,0 0 0,-3-2 0,-1-1 0,-3 1 0,-2 0 0,0 0 0,0-3 0,0 0 0,-1-4 0,0 1 0,0-2 0,-1 0 0,-1 1 0,-1 0 0,0 0 0,0 0 0,0-2 0,0-3 0,0-5 0,1-5 0,5 0 0,5 1 0,8 7 0,4 6 0,0 1 0,-2 0 0,-6-4 0,-3-3 0,-3-4 0,-3-4 0,-3-5 0,-1-1 0,0 3 0,1 4 0,4 6 0,5 6 0,4 6 0,1 1 0,0-1 0,-2-2 0,-1-6 0,-2-1 0,-1-3 0,-1-1 0,0-1 0,0 0 0,-1-1 0,-1-2 0,-1-2 0,-2-3 0,-1-2 0,-1-3 0,1 0 0,1 3 0,3 4 0,1 4 0,2 1 0,1-2 0,-3-2 0,-2-2 0,-3-3 0,0-2 0,2 1 0,1 2 0,-1 1 0,1 0 0,0-1 0,1 0 0,1-1 0,-1 1 0,0 0 0,3 0 0,1 1 0,3 3 0,0 0 0,2 2 0,4 0 0,2 0 0,3 0 0,1-1 0,1 0 0,1-1 0,1 1 0,-5 0 0,-3-3 0,-5-3 0,-4-1 0,-4-2 0,-3 0 0,-2-2 0,1 0 0,4 0 0,2 0 0,6 2 0,5 0 0,3 0 0,2 0 0,-3-2 0,-5 0 0,-4 0 0,-3 0 0,-3 0 0,-1 0 0,-1 0 0,0 2 0,-3-1 0,-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2402">4263 2670 24575,'19'4'0,"5"3"0,4 4 0,-1 1 0,-4 1 0,-4 0 0,0 1 0,1 2 0,-2-2 0,-2-1 0,-5-4 0,-3-1 0,-5-3 0,0-1 0,0 1 0,3 2 0,1 2 0,0 0 0,-1-1 0,-2-2 0,-1-3 0,-1-1 0,0 0 0,-1 4 0,-4 2 0,-2 2 0,-3 1 0,-3 0 0,-3 3 0,-4 1 0,0 1 0,1-1 0,1-1 0,0-1 0,0 1 0,-1 0 0,-2 1 0,1 1 0,4-3 0,6-5 0,5-4 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">126 0 24575,'6'0'0,"1"0"0,3 3 0,-3 4 0,4 9 0,-2-1 0,0 4 0,1 0 0,0-4 0,-2 1 0,2-3 0,-3-3 0,-1 0 0,1 0 0,0-3 0,2 2 0,-1-1 0,1-2 0,-2-3 0,0 0 0,-1 1 0,-5-1 0,-5 0 0,-3-3 0,-3 0 0,1 0 0,-2 0 0,-2 0 0,3 3 0,0 1 0,0 0 0,0-1 0,-9-3 0,-2 4 0,1 0 0,1 3 0,5 0 0,-5-3 0,4 1 0,-1-1 0,7 0 0,5-1 0,1-3 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1951">317 696 24575,'10'9'0,"0"1"0,4 4 0,-1-1 0,2 6 0,1 2 0,-3 0 0,-2-5 0,-4-7 0,-3-2 0,1 0 0,-1-1 0,-3-2 0,-5-1 0,-12-3 0,-5 4 0,-16 8 0,-4 1 0,1 4 0,2-3 0,6 9 0,-6 1 0,3 0 0,3-6 0,13-7 0,6 0 0,-1-2 0,1-2 0,0-3 0,2-1 0,2-3 0,2 0 0,4 0 0,0 0 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1275,16 +1658,15 @@
           <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
         </inkml:channelProperties>
       </inkml:inkSource>
-      <inkml:timestamp xml:id="ts0" timeString="2023-07-04T17:54:34.603"/>
+      <inkml:timestamp xml:id="ts0" timeString="2023-07-17T13:16:38.222"/>
     </inkml:context>
     <inkml:brush xml:id="br0">
       <inkml:brushProperty name="width" value="0.05" units="cm"/>
       <inkml:brushProperty name="height" value="0.05" units="cm"/>
-      <inkml:brushProperty name="color" value="#FF0000"/>
     </inkml:brush>
   </inkml:definitions>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'3'8'0,"8"2"0,6 1 0,4 4 0,1 1 0,-2 2 0,1 1 0,3 2 0,0-1 0,0-1 0,0 1 0,-1 0 0,-1 0 0,-2-1 0,0-1 0,0-2 0,0 0 0,2 0 0,-1 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,3 0 0,0 0 0,-2 0 0,-1 0 0,0 0 0,2 0 0,1 0 0,1 0 0,-1 1 0,1-1 0,-1 0 0,2 0 0,4 1 0,4 1 0,2 1 0,-1 0 0,-1 2 0,2 1 0,5 4 0,6 6 0,7 7 0,8 2 0,-1 0 0,-3-4 0,-10-8 0,-9-5 0,-10-6 0,-7-5 0,-6-4 0,-6-2 0,-4-3 0,4 1 0,12 7 0,24 14 0,14 10 0,14 13 0,6 7 0,-1 0 0,-36-25 0,2 1 0,4 1 0,1 1 0,3-1 0,3 0 0,7 1 0,2 0 0,3-1 0,2-1 0,6 1 0,0-1 0,6 3 0,0 0 0,3 3 0,0 1 0,-24-10 0,1 1 0,0 1-209,2 1 0,0 1 1,2 1 208,2 2 0,0 0 0,1 0 0,1 1 0,-1-1 0,1 1 0,-3-2 0,0-1 0,-1 0 0,-3-2 0,0 0 0,-1-2 0,28 12 0,-1-2-102,-2-4 1,0-2 101,-2-2 0,0-1 0,2-2 0,-1 1 0,1 0 0,-2 0 0,-5-3 0,-2 0 0,-5-1 0,-3-1 0,-5-3 0,-2-1 0,-5-1 0,0-1 0,-1 0 0,0 1 310,-1-2 0,-1 0-310,0 1 0,1 0 104,3 2 1,2-1-105,3 1 0,0 0 0,3 1 0,1-1 0,6 2 0,2 0 0,-3-2 0,1 1 0,6 0 0,3 1 0,0-1 0,2-1 0,-3-1 0,0 0 0,4 1 0,-1 0 0,-4-2 0,-2 1 0,-2-1 0,-1 0 0,-3 0 0,0-1 0,-3-1 0,-1 0 0,-1-1 0,1 0 0,-1 0 0,1-2 0,0 0 0,0-2 0,3 1 0,0-2 0,2 0 0,2-1 0,4 0 0,0-1 0,2 0 0,-1 0 0,-2-1 0,-1 0 0,-4-1 0,-1-1 0,-6 0 0,-2 0 0,-2 0 0,-1 0 0,-5-1 0,-1 0 0,-4 0 0,-1 0 0,37 5 0,-18-2 0,-11-3 0,11-3 0,7-2 0,-23 2 0,5 2 0,16 3 0,6 1 0,7 4 0,3 1-202,-20-3 0,1 0 0,1 0 202,0 1 0,1-1 0,0 0 0,-2-1 0,-1 0 0,1-1 0,0 0 0,0 0 0,1-1 0,1 1 0,-1-2 0,1 1 0,-3 0 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,0-1 0,0 1 0,-1 0 0,-1 0 0,-1 0 0,0-1 0,-1 1 0,1-1 0,0 0 0,0-1 0,0 0 0,0-1 0,0 1 0,-1-1 0,1 1 0,1 0 0,1-1 0,-1 1 0,3-1 0,-1 1 0,1-1 0,-1 1 0,1-1 0,-1 0 0,0 0 0,1 0 0,-2-1 0,29 2 0,-1-1-90,-4-1 0,-1-1 90,-3-1 0,-1-1 0,-3-1 0,0 0 0,1 0 0,-1 0 0,-5 0 0,-2 0 0,-6 0 0,-3 0 0,-7 0 0,-2 0 0,-7 0 0,-2 0 600,37-2-600,-14-3 186,-11-1-186,-7-1 0,-1 1 0,0-1 0,1 1 0,3-1 0,-1 1 0,3-2 0,3-1 0,-1 0 0,2 1 0,1 0 0,5-1 0,7-2 0,6-2 0,2-1 0,-4-2 0,-8 1 0,-8 1 0,-5-3 0,-4 0 0,-1-2 0,-4-2 0,-1 1 0,-2 1 0,-6 4 0,-6 0 0,-7 2 0,-4 1 0,-3 0 0,-1 0 0,1-2 0,2-4 0,2-1 0,2 0 0,1-1 0,3-2 0,2-1 0,3-3 0,1 0 0,0 3 0,-2 0 0,1 1 0,-1 1 0,-2 1 0,-2 2 0,0 0 0,1 0 0,0-1 0,2 0 0,-2 2 0,-1 0 0,2 0 0,1 2 0,2-1 0,3 1 0,-1-1 0,4-1 0,1-3 0,1-2 0,1 0 0,-7-1 0,-5 2 0,-6-1 0,-7 2 0,-2-1 0,-4 1 0,-2 2 0,-3 2 0,-3 2 0,-3 2 0,-1 0 0,-1 0 0,2-1 0,-1-2 0,0-2 0,0-2 0,0-2 0,-1-3 0,1 0 0,1-2 0,0 1 0,2 1 0,-1-3 0,0 0 0,-2-2 0,1-2 0,0-2 0,0-4 0,0-3 0,-2-5 0,-1 0 0,-1 0 0,-2 5 0,0 7 0,0 1 0,0 3 0,0 2 0,0 3 0,0 4 0,0 4 0,0 1 0,0 3 0,0-1 0,2 4 0,5-1 0,10-5 0,5-2 0,8-6 0,6-2 0,7-5 0,11-7 0,9-3 0,7-3 0,5-1 0,1 0 0,0 1 0,-2 1 0,-3 3 0,-9 5 0,-8 3 0,-9 6 0,-7 1 0,2 0 0,0 0 0,2-2 0,-1 3 0,-1 0 0,-2 0 0,3-1 0,6-2 0,5-2 0,6-3 0,4-1 0,5-3 0,5 0 0,9 1 0,9 1 0,5 3 0,-46 16 0,0 1 0,47-10 0,-4 5 0,-4 2 0,-7 4 0,-7 5 0,-4 3 0,-6 2 0,-1 2 0,-3 0 0,-3 3 0,-4 2 0,-4 4 0,-5 5 0,-2 1 0,-4 3 0,-1-1 0,-2 0 0,0-2 0,-1 0 0,-4-3 0,0-2 0,-1-3 0,-2-3 0,2-1 0,-2 1 0,-3-2 0,-6-1 0,-8 1 0,-6 0 0,-3 0 0,1-1 0,2 0 0,-1-1 0,-1 0 0,-1 0 0</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1808">21961 1094 24575,'21'13'0,"1"4"0,7 6 0,-5-3 0,1-1 0,-2 2 0,2 0 0,4 2 0,-4-3 0,-4-3 0,-5-1 0,-6-2 0,-4-4 0,-3-3 0,-1-3 0,-1-2 0,0 0 0,-3-1 0,-8 3 0,-3 1 0,-6 4 0,-6 1 0,-1 2 0,-3 3 0,2-1 0,5 1 0,1-1 0,2 0 0,-1 0 0,0 1 0,2 0 0,5-3 0,4-5 0,3-3 0,4-3 0,1-1 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 0 24575,'0'7'0,"0"3"0,0 6 0,0 6 0,0 16 0,0 3 0,0 24 0,0 1 0,0 13 0,0-1 0,5 0 0,2 12 0,3-20 0,6 17 0,-4-9-855,5 14 855,-8-35 0,0 2 0,0 0 0,2 0 0,1 6 0,2 0-673,-1 6 0,0 0 673,0-4 0,1-1 0,1 5 0,2 0 0,0 0 0,0-1 0,0-3 0,0-1 0,0 5 0,-1 0 0,-3-5 0,0-2 0,1-4 0,2-1-297,-1-7 0,1 0 297,-1-1 0,0-1 0,2-4 0,0 0 0,-2 6 0,1 0 0,14 41 0,-2-4 0,-1-11 0,1 1 0,5-1 0,5-7 0,-11-5 0,3-9 0,-7-10 771,-10-14-771,6-1 1358,-11-17-1358,2-2 666,0-7-666,20 8 0,15 23 0,2 4 0,7 8-1217,-11-9 0,3 4 0,0 1 1217,1 4 0,-1 2 0,2 2 0,5 4 0,1 1 0,-3 0 0,-13-9 0,-1 0 0,-1 0-720,3 1 1,0-1 0,-1-1 719,13 18 0,-2-1 0,1-4 0,-1-1 0,1 1 0,0 0 0,0 0 0,-1 0 0,1-1 0,0 1 0,-1 4 0,1 1 0,3 1 0,2 1-931,-15-20 1,2 1 0,1 1 930,4 3 0,1 1 0,1-1 0,4 2 0,2 0 0,0 1-644,-11-12 1,1 1 0,0 0 0,-1-1 643,14 12 0,0 0 0,-1-1 0,-3-3 0,0-1 0,-1-2 116,-3-4 0,0-2 0,-1-2-116,-5-5 0,-1-2 0,0 0 115,18 12 0,-1-2-115,-1-4 0,0-1 0,0 0 0,0 2 373,1 3 0,1 2-373,0 0 0,0 0 0,-1 1 0,0-1 0,-4-2 0,-1 0 0,0-5 0,0 0 0,1 5 0,-1 1 0,1 0 0,0 1 0,4 0 0,0 0 0,1-1 0,0 0 0,-18-14 0,0-1 0,1 1 317,1 0 0,1 1 0,1 0-317,-1 0 0,1 0 0,0-1 0,-1-2 0,0 0 0,1-3 0,1-4 0,1-1 0,-1-2 0,21 7 0,0-2 0,-21-7 0,1 0 0,0 0 0,2 1 0,1 0 0,0 0 0,2 1 0,1-1 0,0 0-104,3-1 0,1 1 0,-1-1 104,0 1 0,1-1 0,-1 1 0,0 0 0,-1 0 0,1 1 0,-1-1 0,1 0 0,0 1-387,2 1 1,1 2-1,1-2 387,2 0 0,0-2 0,1 0 0,2 1 0,0 0 0,0 0 0,0 0 0,0-1 0,1-1-329,-14-5 0,0-1 0,1 0 0,0 0 329,0 0 0,0 0 0,1 0 0,-1 0 0,3 1 0,-1-1 0,1 0 0,-1 0 0,0 1 0,0-1 0,0 0 0,0 0 0,0 1 0,0-1 0,0 0 0,0 0 0,2 1 0,1-1 0,-1 0 0,1 1-327,2-1 1,0 1-1,0-1 1,1 0 326,2 1 0,2-1 0,-1 1 0,0-1 0,-1 1 0,0-1 0,-1 0 0,1 1 0,1-1 0,0 1 0,1-1 0,-1 1 0,-2-1 0,0 1 0,0-1 0,0 1 0,0-1 0,0 0 0,0 0 0,1 1 0,-1 1 0,0 1 0,1 1 0,-2-1 0,-2 1 0,-1-1 0,-1 1 0,1-1-165,-1-1 0,1-1 0,-1-1 1,-1 1 164,0-1 0,-2 0 0,1-1 0,0 0 0,0-1 0,1 0 0,-1-2 0,1 1 0,3-1 0,1-2 0,0 1 0,0 1 0,0 1 0,0 1 0,0-1 0,0 0 0,0-2 0,0 1 0,0-2 0,0 0 0,0-1 0,0-1 0,0 0 0,-1-1 0,-3 1 0,-1 0 0,0 0 0,0-2 0,1 0 0,-1-1 0,0 0 0,-1-1 0,0 1 0,-1 0 0,0 0 0,-1 0 0,15 0 0,-2 0 0,1 0 0,-1 0 0,-1 0 0,0 0 0,-4 0 0,-1 0 0,-1 0 279,-4 0 1,0 0 0,-1 0-280,-1 0 0,1 0 0,-2 0 0,-3 0 0,-2 0 0,1 0 0,-1 0 0,1 0 0,0 0 0,0 0 0,-1 0 0,1 0 0,2 0 0,1 0 0,0 0 0,2 3 0,1 1 0,0-1 340,3-2 1,1-1 0,-1 1-341,3 2 0,0 1 0,0-1 0,0-2 0,0-2 0,0 1 0,3 0 0,0 0 0,0 0 0,-3 0 0,1 0 0,0 0 152,4 0 0,0 0 0,1 0-152,0 0 0,0 0 0,0 0 0,-1 0 0,-1 0 0,0 0 0,-3 0 0,-1 0 0,-1 0 355,-10 0 0,-1 0 0,-2 0-355,14 0 0,-4 0 603,-11 0 1,-1 0-604,-3 0 0,-3 0 2446,18 0-2446,-4 0 3550,-16-6-3550,-8-3 2066,6-11-2066,2-5 0,18-5 216,10-3-216,-30 15 0,2 1 0,3-2 0,1 2 0,4 2 0,2 2-610,-1-1 1,1 1 609,3 0 0,-1-1 0,-3 0 0,-1-1 0,-3-3 0,-1 0 0,1 0 0,-3 0-255,26-8 255,-2-5 0,-8 0 0,0-3 0,8-5-822,2 6 822,-29 12 0,1-1 0,-1 0 0,0 0 0,29-21 600,-7-4-600,-20 20 1188,-8-4-1188,-11 13 268,0 4-268,0-4 919,-4 9-919,3-3 105,-3-1-105,4-1 0,0 0 0,0-3 0,8-1 0,10-6 0,18-15 0,2 6-404,-22 12 0,1 0 404,28-12 0,1-1 0,-29 21 0,-1 0 0,22-10-321,6 0 321,-8-2 0,0-6 0,0-7 0,-1-2 0,1 0 0,8 0 0,2 7 0,-8 2 0,4-8 0,-14 8 0,8 0 0,-8 3 0,6 4 0,-7-5 0,1 0 0,6-2 0,-6 2 0,8-2 0,-8 2 0,-2 0 0,-16 7 0,2-10 0,0-1 0,-5 2 795,-1 2-795,-11 17 334,0 1-334,1-1 0,0 0 0,3-6 0,-4 2 0,1 0 0,-1 0 0,-4 3 0,-1-1 0,1 0 0,-3 1 0,0 2 0,0-2 0,-2 3 0,0-1 0,0-8 0,0 7 0,1-4 0,1-3 0,-2 7 0,-1-8 0,2-11 0,-2 7 0,1-15 0,-3 12 0,1 0 0,1 0 0,-1 0 0,0 0 0,0 0 0,2-12 0,-1-2 0,4-12 0,-3 0 0,0 12 0,-1 2 0,-1 12 0,1 0 0,-1 0 0,3 0 0,-3 0 0,1 5 0,-1 3 0,-3 5 0,2 1 0,1-7 0,0-1 0,0 3 0,-3-1 0,2 8 0,1 1 0,-1-9 0,0 1 0,1-10 0,1 1 0,-1-11 0,0-4 0,-1 7 0,1-2 0,0 22 0,0-5 0,0 1 0,0 4 0,0-5 0,1 6 0,-1 1 0,0-1 0,2-6 0,-2-1 0,1 0 0,1 2 0,-3 5 0,1 0 0,1 1 0,-1-1 0,2-5 0,0 3 0,-1 0 0,-2 3 0,0 2 0,0-2 0,1-1 0,-1 1 0,0 2 0,1-2 0,0 2 0,-1-2 0,1-7 0,-1 5 0,4-5 0,-1 1 0,1-2 0,3-6 0,-2-1 0,2 1 0,1 0 0,-1 0 0,7-12 0,0-2 0,2-12 0,1 1 0,-1-1 0,1 0 0,-3 12 0,-3 8 0,0 8 0,-2 4 0,0-1 0,-2 6 0,-2 6 0,0 0 0,-2 0 0,4-4 0,3-2 0,-1 2 0,10-13 0,6-4 0,-1 0 0,15-13 0,-8 10 0,8-4 0,-1 3 0,-15 14 0,-4 5 0,-11 6 0,-3 3 0,0 3 0,0-2 0,5-3 0,3 0 0,-1-3 0,0 5 0,-4 3 0,-1-2 0,1-1 0,-1-1 0,1-2 0,-1 4 0,1-1 0,-3 0 0,0 0 0,4-1 0,2 0 0,2 0 0,-3 1 0,-6 0 0,1 3 0,1-2 0,1 2 0,-1 0 0,-4-2 0,-1 3 0,-1-1 0,2 1 0,4 3 0,1-3 0,5-2 0,9 1 0,-2-4 0,6 3 0,-8 0 0,0 1 0,0 4 0,8 0 0,10 0 0,10 0 0,16 0 0,-6-7-688,14-3 688,-6-6 0,-9 0 0,-3 1 0,-16 2 0,0 0 0,-8 2 0,-6 4 0,-5 3 688,-3 4-688,0 0 0,-1 0 0,-5-3 0,1-1 0,-1 0 0,5 1 0,-3 3 0,2 0 0,-3-3 0,-5-1 0,1 1 0,-1-1 0,3 4 0,5 0 0,2-4 0,0 0 0,11 0 0,-1 1 0,12-3 0,8-3 0,-14 2 0,4-4 0,-20 7 0,-2-4 0,1 0 0,-3 1 0,7-6 0,-4 4 0,1-3 0,3-1 0,-3 0 0,0-3 0,-1 4 0,-5 2 0,-1 3 0,-1 0 0,-3-3 0,1 0 0,0-4 0,0 3 0,-1 2 0,-1-1 0,1 2 0,-1-2 0,0 4 0,1-1 0,-1 0 0,-1 0 0,0 0 0,-2 1 0,2-4 0,1 2 0,0-2 0,-1 1 0,-2-2 0,0 0 0,0 2 0,0 2 0,2 3 0,1-2 0,1-1 0,1-4 0,0-2 0,2-1 0,0 1 0,4-7 0,-3 5 0,-2-2 0,-4 7 0,0 7 0,1-3 0,2-1 0,2-4 0,0-2 0,3-1 0,-3 3 0,0 2 0,-2 2 0,0 0 0,-1 0 0,-1 0 0,-1 1 0,-2-1 0,0 0 0,2 3 0,1 1 0,0 0 0,-1-1 0,0-2 0,3-1 0,2 0 0,7-1 0,1 0 0,-1 0 0,-2 3 0,-5-1 0,0 2 0,-2 1 0,2 0 0,-2 3 0,-3-3 0,1-1 0,-1 0 0,0 1 0,3 3 0,0 0 0,-2 0 0,-1 0 0</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1712">23895 3488 24575,'14'4'0,"-3"3"0,7 6 0,-4 3 0,1 1 0,3 0 0,-7-6 0,1 1 0,-6-5 0,-1-3 0,0-1 0,0 0 0,-1 1 0,1-1 0,0 0 0,0-3 0,0 0 0,-1 3 0,1 1 0,-2 3 0,-1 0 0,-2 0 0,0 2 0,0 2 0,0 3 0,0-4 0,-2 0 0,-1 0 0,0-3 0,1 0 0,2-4 0</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -1585,10 +1967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B51971D1-78C0-B94C-80BF-669AF7D7A955}">
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScale="131" workbookViewId="0">
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1599,22 +1981,24 @@
     <col min="5" max="5" width="25" customWidth="1"/>
     <col min="6" max="6" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="23.83203125" customWidth="1"/>
-    <col min="8" max="8" width="17.33203125" customWidth="1"/>
-    <col min="9" max="9" width="27.6640625" customWidth="1"/>
-    <col min="10" max="10" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="10" max="10" width="17.6640625" customWidth="1"/>
+    <col min="11" max="11" width="21.83203125" customWidth="1"/>
+    <col min="12" max="12" width="17.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
@@ -1622,7 +2006,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1638,23 +2022,21 @@
         <v>12</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F7" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>6</v>
       </c>
@@ -1665,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1676,7 +2058,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>3</v>
       </c>
@@ -1687,13 +2069,13 @@
         <v>21</v>
       </c>
       <c r="H10" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
@@ -1704,7 +2086,7 @@
         <v>19</v>
       </c>
       <c r="G11" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="H11" s="3" t="s">
         <v>1</v>
@@ -1713,7 +2095,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>8</v>
       </c>
@@ -1724,16 +2106,16 @@
         <v>22</v>
       </c>
       <c r="G12" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="J12" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>9</v>
       </c>
@@ -1741,22 +2123,22 @@
         <v>17</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>10</v>
       </c>
@@ -1767,54 +2149,98 @@
         <v>24</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="K15" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="4"/>
+      <c r="L16" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L19" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="M19" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M20" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="L21" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A22" s="6" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A23" s="5" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A24" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="H15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I15" s="2" t="s">
+      <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H16" s="3" t="s">
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A25" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="I16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="J16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="K16" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" s="2" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
